--- a/Filexel/lainlain.xlsx
+++ b/Filexel/lainlain.xlsx
@@ -8,39 +8,98 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Filexel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF8D007-7EE0-4C7D-B0C5-D77DE3CD9D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA1137C-BA67-4D97-9BA8-94A6A7ABE16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8712" yWindow="-264" windowWidth="19188" windowHeight="9744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pegawai" sheetId="1" r:id="rId1"/>
     <sheet name="Instansi" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Harilibur" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Keteragan</t>
+  </si>
+  <si>
+    <t>Hari Nasional</t>
+  </si>
+  <si>
+    <t>Hari Buruh Internasional</t>
+  </si>
+  <si>
+    <t>Hari Lahir Pancasila</t>
+  </si>
+  <si>
+    <t>Wafat Isa Almasih</t>
+  </si>
+  <si>
+    <t>Kenaikan Isa Almasih</t>
+  </si>
+  <si>
+    <t>Tahun Baru </t>
+  </si>
+  <si>
+    <t>Instansi</t>
+  </si>
+  <si>
+    <t>Instansi_Diatasnya</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Instansi1</t>
+  </si>
+  <si>
+    <t>POLDA JABAR</t>
+  </si>
+  <si>
+    <t>Kepolisian Daerah</t>
+  </si>
+  <si>
+    <t>Instansi2</t>
+  </si>
+  <si>
+    <t>Instansi3</t>
+  </si>
+  <si>
+    <t>Instansi4</t>
+  </si>
+  <si>
+    <t>Instansi5</t>
+  </si>
+  <si>
+    <t>Instansi6</t>
+  </si>
+  <si>
+    <t>Instansi7</t>
+  </si>
+  <si>
+    <t>Instansi8</t>
+  </si>
+  <si>
+    <t>Instansi9</t>
+  </si>
+  <si>
+    <t>Instansi10</t>
+  </si>
   <si>
     <t>NIP</t>
   </si>
   <si>
-    <t>Nama</t>
-  </si>
-  <si>
     <t>Tempat Lahir</t>
   </si>
   <si>
@@ -105,9 +164,6 @@
   </si>
   <si>
     <t>PGW2</t>
-  </si>
-  <si>
-    <t>14/06/1990</t>
   </si>
   <si>
     <t>Operator</t>
@@ -151,33 +207,40 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF313132"/>
+      <name val="Roboto"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -186,8 +249,9 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -202,11 +266,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
-        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -241,59 +311,110 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -340,20 +461,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -386,9 +507,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -427,131 +548,158 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -563,308 +711,544 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="28.8">
-      <c r="A2" s="6">
+      <c r="C1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
         <v>982692374</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="28.8">
-      <c r="A3" s="6">
+      <c r="B2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29">
         <v>56457634</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="28.8">
-      <c r="A4" s="6">
+      <c r="B3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="16">
+        <v>33028</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
         <v>324532452</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="C5" s="1"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="C6" s="1"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="C7" s="1"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="C8" s="1"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="C9" s="1"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="C10" s="1"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="C11" s="1"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="1"/>
+      <c r="B4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+    </row>
+    <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+    </row>
+    <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+    </row>
+    <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{6EA32827-7D62-454D-98D0-4A8FE0640BE5}"/>
-    <hyperlink ref="K3:K4" r:id="rId2" display="testing@gmail.com" xr:uid="{012BA2FB-11BA-415A-96C2-4E639F9ED1C5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>44566</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>44713</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>44757</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>44766</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Filexel/lainlain.xlsx
+++ b/Filexel/lainlain.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Filexel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA1137C-BA67-4D97-9BA8-94A6A7ABE16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Pegawai" sheetId="1" r:id="rId1"/>
-    <sheet name="Instansi" sheetId="2" r:id="rId2"/>
-    <sheet name="Harilibur" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Pegawai"/>
+    <sheet r:id="rId2" sheetId="2" name="Instansi"/>
+    <sheet r:id="rId3" sheetId="3" name="Harilibur"/>
+    <sheet r:id="rId4" sheetId="4" name="Sheet4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +43,7 @@
     <t>Kenaikan Isa Almasih</t>
   </si>
   <si>
-    <t>Tahun Baru </t>
+    <t xml:space="preserve">Tahun Baru </t>
   </si>
   <si>
     <t>Instansi</t>
@@ -205,9 +199,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -251,7 +245,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF0000ff"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -265,7 +259,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
+        <fgColor rgb="FFbfbfbf"/>
       </patternFill>
     </fill>
   </fills>
@@ -314,113 +308,122 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="36">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -431,10 +434,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -472,71 +475,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -564,7 +567,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -587,11 +590,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -600,13 +603,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -616,7 +619,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -625,7 +628,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -634,7 +637,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -642,10 +645,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -710,281 +713,279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="31" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="32" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="33" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="34" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="33" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="33" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="33" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="33" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="33" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="33" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="33" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="35" width="11.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="35.25" customFormat="1" s="15">
+      <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="34.5">
+      <c r="A2" s="20">
         <v>982692374</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="34.5">
+      <c r="A3" s="20">
         <v>56457634</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="22">
         <v>33028</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="35.25">
+      <c r="A4" s="20">
         <v>324532452</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="20"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="21"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-    </row>
-    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="20"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="21"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
-    </row>
-    <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="20"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="21"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
-    </row>
-    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="20"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="21"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
-    </row>
-    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="20"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="21"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
-    </row>
-    <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="20"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="21"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
-    </row>
-    <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="20"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="21"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -992,7 +993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1000,131 +1001,131 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="15.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1134,23 +1135,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="10" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="22.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5">
         <v>44566</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="5">
         <v>44713</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="5">
         <v>44757</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="5">
         <v>44766</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="5">
         <v>44927</v>
       </c>
@@ -1216,9 +1216,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1226,7 +1232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1234,18 +1240,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="2" width="10.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1"/>
     </row>
   </sheetData>

--- a/Filexel/lainlain.xlsx
+++ b/Filexel/lainlain.xlsx
@@ -308,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -326,15 +326,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -723,269 +714,269 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="31" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="32" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="33" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="34" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="33" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="33" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="33" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="33" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="33" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="33" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="33" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="35" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="29" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="30" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="31" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="30" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="30" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="30" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="30" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="30" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="30" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="30" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="32" width="11.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="35.25" customFormat="1" s="15">
-      <c r="A1" s="16" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="35.25" customFormat="1" s="12">
+      <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="34.5">
-      <c r="A2" s="20">
+      <c r="A2" s="17">
         <v>982692374</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="34.5">
-      <c r="A3" s="20">
+      <c r="A3" s="17">
         <v>56457634</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="19">
         <v>33028</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="35.25">
-      <c r="A4" s="20">
+      <c r="A4" s="17">
         <v>324532452</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="28"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="30"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="28"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="30"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="28"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="30"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="28"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="30"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="28"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="28"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="30"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="28"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1003,129 +994,129 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="15.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1139,15 +1130,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="22.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1215,16 +1206,6 @@
       <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Filexel/lainlain.xlsx
+++ b/Filexel/lainlain.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilda\Documents\Automationpython\Filexel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C41C3A-3943-4491-BCC6-843443CD7EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13760" activeTab="3"/>
+    <workbookView xWindow="3000" yWindow="2400" windowWidth="21600" windowHeight="8730" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pegawai" sheetId="1" r:id="rId1"/>
     <sheet name="Instansi" sheetId="2" r:id="rId2"/>
     <sheet name="Harilibur" sheetId="3" r:id="rId3"/>
     <sheet name="pekerjaan" sheetId="4" r:id="rId4"/>
+    <sheet name="DaftarUpt" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
   <si>
     <t>NIP</t>
   </si>
@@ -221,25 +228,127 @@
   </si>
   <si>
     <t>pekerjaan9</t>
+  </si>
+  <si>
+    <t>NamaUPT</t>
+  </si>
+  <si>
+    <t>Kanwil</t>
+  </si>
+  <si>
+    <t>AlamatUPT</t>
+  </si>
+  <si>
+    <t>Telpon</t>
+  </si>
+  <si>
+    <t>JenisUPT</t>
+  </si>
+  <si>
+    <t>KelasUPT</t>
+  </si>
+  <si>
+    <t>KapasitasUPT</t>
+  </si>
+  <si>
+    <t>wilayah</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>KepalaUPT</t>
+  </si>
+  <si>
+    <t>NamaJabatan1</t>
+  </si>
+  <si>
+    <t>Pangkat1</t>
+  </si>
+  <si>
+    <t>Nip1</t>
+  </si>
+  <si>
+    <t>PejabatUPT</t>
+  </si>
+  <si>
+    <t>NamaJabatan2</t>
+  </si>
+  <si>
+    <t>Pangkat2</t>
+  </si>
+  <si>
+    <t>Nip2</t>
+  </si>
+  <si>
+    <t>UPT COBA 1</t>
+  </si>
+  <si>
+    <t>JAMBI</t>
+  </si>
+  <si>
+    <t>DAGO TIMUR 31</t>
+  </si>
+  <si>
+    <t>Lapas Anak</t>
+  </si>
+  <si>
+    <t>Kelas I</t>
+  </si>
+  <si>
+    <t>Kerinci</t>
+  </si>
+  <si>
+    <t>Azward Nur pake D</t>
+  </si>
+  <si>
+    <t>jabatan</t>
+  </si>
+  <si>
+    <t>legend</t>
+  </si>
+  <si>
+    <t>33i991278</t>
+  </si>
+  <si>
+    <t>Eko cahloyo</t>
+  </si>
+  <si>
+    <t>Iya</t>
+  </si>
+  <si>
+    <t>diamond</t>
+  </si>
+  <si>
+    <t>UPT COBA 2</t>
+  </si>
+  <si>
+    <t>DAGO TIMUR 32</t>
+  </si>
+  <si>
+    <t>33i991279</t>
+  </si>
+  <si>
+    <t>Jambi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF606266"/>
+      <name val="Roboto"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -266,353 +375,16 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -620,282 +392,41 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -910,83 +441,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1271,11 +758,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1285,23 +773,23 @@
       <selection activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="7.859375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.2890625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="14.2890625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="14.859375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="14" customWidth="1"/>
-    <col min="12" max="12" width="11.2890625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="15" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="15" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="35.25" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" s="12" customFormat="1" ht="35.25" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="34.5" customHeight="1" spans="1:12">
+    <row r="2" spans="1:12" ht="34.5" customHeight="1">
       <c r="A2">
         <v>982692374</v>
       </c>
@@ -1377,7 +865,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" ht="34.5" customHeight="1" spans="1:12">
+    <row r="3" spans="1:12" ht="34.5" customHeight="1">
       <c r="A3">
         <v>56457634</v>
       </c>
@@ -1415,7 +903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="35.25" customHeight="1" spans="1:12">
+    <row r="4" spans="1:12" ht="35.25" customHeight="1">
       <c r="A4">
         <v>324532452</v>
       </c>
@@ -1453,412 +941,591 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
-    </row>
-    <row r="6" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
-    </row>
-    <row r="7" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-    </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-    </row>
-    <row r="9" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-    </row>
-    <row r="10" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
-    </row>
-    <row r="11" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.859375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.4296875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="4" customWidth="1"/>
     <col min="2" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A2" s="6">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A2" s="7">
         <v>44566</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A3" s="6">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A3" s="7">
         <v>44713</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A4" s="6">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A4" s="7">
         <v>44757</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A5" s="6">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A5" s="7">
         <v>44766</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A6" s="6">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A6" s="7">
         <v>44927</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2">
+        <v>9988278</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2">
+        <v>300</v>
+      </c>
+      <c r="H2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2">
+        <v>3324</v>
+      </c>
+      <c r="J2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2">
+        <v>93883282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3">
+        <v>9988279</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3">
+        <v>301</v>
+      </c>
+      <c r="H3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3">
+        <v>3325</v>
+      </c>
+      <c r="J3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3">
+        <v>93883283</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Filexel/lainlain.xlsx
+++ b/Filexel/lainlain.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilda\Documents\Automationpython\Filexel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Filexel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4576C3-19E7-4C92-923F-A7D79C9A2031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEA5B88-90F4-4628-80DA-1E028F3487E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2400" windowWidth="21600" windowHeight="8730" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2736" yWindow="2028" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pegawai" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="156">
   <si>
     <t>NIP</t>
   </si>
@@ -472,18 +472,49 @@
   </si>
   <si>
     <t>test negara8</t>
+  </si>
+  <si>
+    <t>Penyidik</t>
+  </si>
+  <si>
+    <t>Pengadilan Tinggi</t>
+  </si>
+  <si>
+    <t>Penuntut</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>Pengadilan Negeri</t>
+  </si>
+  <si>
+    <t>Mahkamah Agung</t>
+  </si>
+  <si>
+    <t>tidak</t>
+  </si>
+  <si>
+    <t>Perampuan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -549,6 +580,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF606266"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -570,37 +606,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -621,24 +657,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -947,24 +985,24 @@
   </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="15" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="15" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="15" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="12" customFormat="1" ht="35.25" customHeight="1">
@@ -1057,7 +1095,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -1119,19 +1157,43 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
+    <row r="5" spans="1:12" ht="34.5" customHeight="1">
+      <c r="A5">
+        <v>25562223</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1">
       <c r="A6" s="18"/>
@@ -1227,18 +1289,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
@@ -1248,8 +1316,23 @@
       <c r="C1" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+      <c r="D1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>38</v>
       </c>
@@ -1259,8 +1342,23 @@
       <c r="C2" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1">
+      <c r="D2" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
@@ -1270,8 +1368,23 @@
       <c r="C3" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1">
+      <c r="D3" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>42</v>
       </c>
@@ -1281,8 +1394,24 @@
       <c r="C4" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1">
+      <c r="D4" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>43</v>
       </c>
@@ -1293,7 +1422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1">
+    <row r="6" spans="1:9" ht="19.5" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>44</v>
       </c>
@@ -1304,7 +1433,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1">
+    <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>45</v>
       </c>
@@ -1315,7 +1444,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1">
+    <row r="8" spans="1:9" ht="19.5" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>46</v>
       </c>
@@ -1326,7 +1455,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1">
+    <row r="9" spans="1:9" ht="19.5" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>47</v>
       </c>
@@ -1337,7 +1466,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>48</v>
       </c>
@@ -1348,7 +1477,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>49</v>
       </c>
@@ -1361,6 +1490,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1373,10 +1503,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1">
@@ -1461,9 +1591,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" customHeight="1">
@@ -1529,22 +1659,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="1" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" ht="15">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -1716,16 +1846,16 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="30.109375" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1875,9 +2005,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1911,7 +2041,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1925,7 +2055,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="24" t="s">
@@ -1961,11 +2091,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF81207-627F-4F34-AE6A-021ADBA96953}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2013,7 +2143,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Filexel/lainlain.xlsx
+++ b/Filexel/lainlain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Filexel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEA5B88-90F4-4628-80DA-1E028F3487E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C93FBBD-55B6-4C9A-92EB-693F95FA814A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2736" yWindow="2028" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pegawai" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="156">
   <si>
     <t>NIP</t>
   </si>
@@ -985,7 +985,7 @@
   </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1291,8 +1291,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1421,6 +1421,21 @@
       <c r="C5" s="11" t="s">
         <v>40</v>
       </c>
+      <c r="D5" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="19.5" customHeight="1">
       <c r="A6" s="11" t="s">
@@ -1432,6 +1447,21 @@
       <c r="C6" s="11" t="s">
         <v>40</v>
       </c>
+      <c r="D6" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="A7" s="11" t="s">
@@ -1443,6 +1473,21 @@
       <c r="C7" s="11" t="s">
         <v>40</v>
       </c>
+      <c r="D7" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="19.5" customHeight="1">
       <c r="A8" s="11" t="s">
@@ -1454,6 +1499,21 @@
       <c r="C8" s="11" t="s">
         <v>40</v>
       </c>
+      <c r="D8" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="19.5" customHeight="1">
       <c r="A9" s="11" t="s">
@@ -1465,6 +1525,21 @@
       <c r="C9" s="11" t="s">
         <v>40</v>
       </c>
+      <c r="D9" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="19.5" customHeight="1">
       <c r="A10" s="11" t="s">
@@ -1476,6 +1551,21 @@
       <c r="C10" s="11" t="s">
         <v>40</v>
       </c>
+      <c r="D10" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1">
       <c r="A11" s="11" t="s">
@@ -1486,6 +1576,21 @@
       </c>
       <c r="C11" s="11" t="s">
         <v>40</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Filexel/lainlain.xlsx
+++ b/Filexel/lainlain.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Filexel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B39FF3-257B-4786-A6C8-527EAEFDFCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13760" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="4080" yWindow="1644" windowWidth="18960" windowHeight="10092" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pegawai" sheetId="1" r:id="rId1"/>
@@ -20,13 +26,14 @@
     <sheet name="PengadilanNegeri" sheetId="11" r:id="rId11"/>
     <sheet name="PengadilanTinggi" sheetId="12" r:id="rId12"/>
     <sheet name="JenisRegistrasi" sheetId="13" r:id="rId13"/>
+    <sheet name="manajemenpengguna" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="207">
   <si>
     <t>NIP</t>
   </si>
@@ -575,20 +582,88 @@
   </si>
   <si>
     <t>TEST 03</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Nip</t>
+  </si>
+  <si>
+    <t>No Hp</t>
+  </si>
+  <si>
+    <t>Unit Kerja</t>
+  </si>
+  <si>
+    <t>Tipe</t>
+  </si>
+  <si>
+    <t>UPT</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Aktif Level</t>
+  </si>
+  <si>
+    <t>userlima</t>
+  </si>
+  <si>
+    <t>cahtes</t>
+  </si>
+  <si>
+    <t>tes@gmail.com</t>
+  </si>
+  <si>
+    <t>ditjenpas</t>
+  </si>
+  <si>
+    <t>Pusat</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>userenam</t>
+  </si>
+  <si>
+    <t>polda</t>
+  </si>
+  <si>
+    <t>Kepala Seksi</t>
+  </si>
+  <si>
+    <t>usertuju</t>
+  </si>
+  <si>
+    <t>polsek</t>
+  </si>
+  <si>
+    <t>Lampung</t>
+  </si>
+  <si>
+    <t>Lapas Kelas I Bandar Lampung</t>
+  </si>
+  <si>
+    <t>userdelapan</t>
+  </si>
+  <si>
+    <t>Administrasi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,345 +709,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -980,262 +737,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1247,7 +761,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1274,7 +788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1286,7 +800,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1295,62 +809,36 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1635,11 +1123,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1649,23 +1138,23 @@
       <selection activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="7.859375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="14.2890625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.2890625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="14.859375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="18" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="18" customWidth="1"/>
-    <col min="12" max="12" width="11.2890625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="35.25" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" s="14" customFormat="1" ht="35.25" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="34.5" customHeight="1" spans="1:12">
+    <row r="2" spans="1:12" ht="34.5" customHeight="1">
       <c r="A2">
         <v>982692374</v>
       </c>
@@ -1741,7 +1230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" ht="34.5" customHeight="1" spans="1:12">
+    <row r="3" spans="1:12" ht="34.5" customHeight="1">
       <c r="A3">
         <v>56457634</v>
       </c>
@@ -1779,7 +1268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="35.25" customHeight="1" spans="1:12">
+    <row r="4" spans="1:12" ht="35.25" customHeight="1">
       <c r="A4">
         <v>324532452</v>
       </c>
@@ -1817,122 +1306,120 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
-    </row>
-    <row r="6" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
-    </row>
-    <row r="7" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-    </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-    </row>
-    <row r="9" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-    </row>
-    <row r="10" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
-    </row>
-    <row r="11" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+    </row>
+    <row r="10" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13.015625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1961,22 +1448,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="17.3203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2085,20 +1570,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -2206,30 +1689,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="18.7421875" customWidth="1"/>
-    <col min="3" max="3" width="24.4765625" customWidth="1"/>
-    <col min="4" max="4" width="6.8984375" customWidth="1"/>
-    <col min="5" max="5" width="14.1953125" customWidth="1"/>
-    <col min="6" max="6" width="17.96875" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>168</v>
       </c>
@@ -2392,246 +1873,427 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5210A212-80DC-402A-ABDE-930EA52670CA}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="28">
+        <v>834762739645783</v>
+      </c>
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="28">
+        <v>8637465347234</v>
+      </c>
+      <c r="F2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="28">
+        <v>834762739645783</v>
+      </c>
+      <c r="D3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="28">
+        <v>8637465347234</v>
+      </c>
+      <c r="F3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="28">
+        <v>834762739645783</v>
+      </c>
+      <c r="D4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="28">
+        <v>8637465347234</v>
+      </c>
+      <c r="F4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A5" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="28">
+        <v>834762739645783</v>
+      </c>
+      <c r="D5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="28">
+        <v>8637465347234</v>
+      </c>
+      <c r="F5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" t="s">
+        <v>196</v>
+      </c>
+      <c r="J5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="14.859375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.4296875" style="7" customWidth="1"/>
-    <col min="2" max="3" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A2" s="10">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A2" s="9">
         <v>44566</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A3" s="10">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A3" s="9">
         <v>44713</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A4" s="10">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A4" s="9">
         <v>44757</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A5" s="10">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A5" s="9">
         <v>44766</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A6" s="10">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A6" s="9">
         <v>44927</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2641,92 +2303,90 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.859375" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.4296875" customWidth="1"/>
+    <col min="1" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="10" max="10" width="16.2890625" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.4296875" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.4296875"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:17">
+    <row r="1" spans="1:17" ht="15">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -2754,28 +2414,28 @@
       <c r="I1" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2887,29 +2547,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.859375" customWidth="1"/>
-    <col min="6" max="6" width="15.859375" customWidth="1"/>
-    <col min="7" max="7" width="21.4296875" customWidth="1"/>
-    <col min="8" max="8" width="18.4296875" customWidth="1"/>
-    <col min="10" max="10" width="18.2890625" customWidth="1"/>
-    <col min="11" max="11" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="30.109375" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2929,10 +2587,10 @@
       <c r="E1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>107</v>
       </c>
       <c r="H1" t="s">
@@ -2958,43 +2616,43 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>111</v>
       </c>
       <c r="C2">
         <v>9988756</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>97</v>
       </c>
       <c r="J2">
         <v>9831</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" t="s">
         <v>117</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" t="s">
         <v>118</v>
       </c>
       <c r="N2">
@@ -3002,43 +2660,43 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>120</v>
       </c>
       <c r="C3">
         <v>9988758</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>125</v>
       </c>
       <c r="J3">
         <v>432113</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>126</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" t="s">
         <v>127</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" t="s">
         <v>128</v>
       </c>
       <c r="N3">
@@ -3047,114 +2705,108 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.859375" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1" ht="15">
+      <c r="A1" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -3162,47 +2814,46 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Filexel/lainlain.xlsx
+++ b/Filexel/lainlain.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Filexel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FB90C3-E985-4BBC-A825-68AE5A44B997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13760" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="9345" yWindow="1485" windowWidth="24585" windowHeight="9120" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pegawai" sheetId="1" r:id="rId1"/>
@@ -22,13 +28,14 @@
     <sheet name="JenisRegistrasi" sheetId="13" r:id="rId13"/>
     <sheet name="manajemenpengguna" sheetId="14" r:id="rId14"/>
     <sheet name="JenisKejahatan" sheetId="15" r:id="rId15"/>
+    <sheet name="Lain-lain" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="234">
   <si>
     <t>NIP</t>
   </si>
@@ -643,24 +650,112 @@
   </si>
   <si>
     <t>Test Deskripsi 2</t>
+  </si>
+  <si>
+    <t>Id Lookup</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>KIKA1</t>
+  </si>
+  <si>
+    <t>KAKI1</t>
+  </si>
+  <si>
+    <t>KIKA2</t>
+  </si>
+  <si>
+    <t>KAKI2</t>
+  </si>
+  <si>
+    <t>DB1</t>
+  </si>
+  <si>
+    <t>BD1</t>
+  </si>
+  <si>
+    <t>DB2</t>
+  </si>
+  <si>
+    <t>BD2</t>
+  </si>
+  <si>
+    <t>A81</t>
+  </si>
+  <si>
+    <t>A82</t>
+  </si>
+  <si>
+    <t>A83</t>
+  </si>
+  <si>
+    <t>A84</t>
+  </si>
+  <si>
+    <t>kirikanan1arah</t>
+  </si>
+  <si>
+    <t>kanankiri1arah</t>
+  </si>
+  <si>
+    <t>kanankiri2arah</t>
+  </si>
+  <si>
+    <t>kirikanan2arah</t>
+  </si>
+  <si>
+    <t>depan ke belakang (1arah)</t>
+  </si>
+  <si>
+    <t>belakang ke depan (1 arah)</t>
+  </si>
+  <si>
+    <t>depan ke belakang (2 arah)</t>
+  </si>
+  <si>
+    <t>belakang ke depan (2 arah)</t>
+  </si>
+  <si>
+    <t>Angka 8 (mulai kiri atas)</t>
+  </si>
+  <si>
+    <t>Penomoran Kamar</t>
+  </si>
+  <si>
+    <t>Angka 8 (mulai kiri bawah)</t>
+  </si>
+  <si>
+    <t>Angka 8 (mulai kanani atas)</t>
+  </si>
+  <si>
+    <t>Angka 8 (mulai kanan bawah)</t>
+  </si>
+  <si>
+    <t>Catatan</t>
+  </si>
+  <si>
+    <t>Kosong aja lah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -707,352 +802,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF606266"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1060,305 +823,62 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1373,89 +893,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1740,994 +1220,976 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.578125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="7.859375" style="22" customWidth="1"/>
-    <col min="3" max="4" width="14.2890625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="14.859375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="19.578125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="11.1484375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="9.578125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="11.1484375" style="23" customWidth="1"/>
-    <col min="10" max="10" width="17.71875" style="23" customWidth="1"/>
-    <col min="11" max="11" width="16.71875" style="23" customWidth="1"/>
-    <col min="12" max="12" width="11.2890625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="21" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="22" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="22" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" ht="35.25" customHeight="1" spans="1:12">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" s="19" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="34.5" customHeight="1" spans="1:12">
-      <c r="A2" s="27">
+    <row r="2" spans="1:12" ht="34.5" customHeight="1">
+      <c r="A2" s="26">
         <v>982692374</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" ht="34.5" customHeight="1" spans="1:12">
-      <c r="A3" s="27">
+    <row r="3" spans="1:12" ht="34.5" customHeight="1">
+      <c r="A3" s="26">
         <v>56457634</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="35.25" customHeight="1" spans="1:12">
-      <c r="A4" s="27">
+    <row r="4" spans="1:12" ht="35.25" customHeight="1">
+      <c r="A4" s="26">
         <v>324532452</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A5" s="27"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32"/>
-    </row>
-    <row r="6" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A6" s="27"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32"/>
-    </row>
-    <row r="7" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A7" s="27"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32"/>
-    </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A8" s="27"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
-    </row>
-    <row r="9" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A9" s="27"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
-    </row>
-    <row r="10" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
-    </row>
-    <row r="11" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31"/>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="31"/>
+    </row>
+    <row r="7" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A7" s="26"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+    </row>
+    <row r="10" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
+    </row>
+    <row r="11" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.0078125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A3" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>146</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.2890625" style="7" customWidth="1"/>
-    <col min="4" max="5" width="13.578125" style="7" customWidth="1"/>
-    <col min="6" max="8" width="13.578125" style="3" customWidth="1"/>
+    <col min="1" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>40525</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>4498493</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>998393</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A3" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>40526</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>4498494</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>998394</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A4" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>40527</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>4498495</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>998395</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.578125" style="3" customWidth="1"/>
-    <col min="3" max="5" width="13.578125" style="7" customWidth="1"/>
-    <col min="6" max="8" width="13.578125" style="3" customWidth="1"/>
+    <col min="1" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>40525</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>4498493</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>998393</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A3" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>40526</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>4498494</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>998394</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A4" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>40527</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>4498495</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>998395</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.71875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.4296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.859375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.2890625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="18.0078125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18.71875" style="7" customWidth="1"/>
-    <col min="8" max="13" width="13.578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="6" customWidth="1"/>
+    <col min="8" max="13" width="13.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:13">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="M1" s="8"/>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:13">
-      <c r="A2" s="9">
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>1</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>1</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>1</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>1</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>1</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>1</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>1</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:13">
-      <c r="A3" s="9">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>2</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>2</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>2</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>2</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>2</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>2</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>2</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:13">
-      <c r="A4" s="9">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>3</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>3</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>3</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>3</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>3</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>3</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>3</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>3</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.71875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.4296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.71875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.0078125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.0078125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.2890625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.2890625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.71875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="17.2890625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.859375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:11">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>834762739645783</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>8637465347234</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>189</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" t="s">
         <v>190</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:11">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>834762739645783</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>187</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>8637465347234</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>192</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" t="s">
         <v>193</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1" spans="1:11">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>834762739645783</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>8637465347234</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>182</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>196</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>197</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>118</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:11">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>834762739645783</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>8637465347234</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>189</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" t="s">
         <v>199</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" t="s">
         <v>199</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.0546875" customWidth="1"/>
-    <col min="2" max="2" width="19.0078125" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>200</v>
       </c>
@@ -2753,778 +2215,961 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8881C2DC-9E0F-4785-938B-6030BDE9CB9F}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="33"/>
+    <col min="2" max="2" width="17.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="14.859375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.71875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.4296875" style="14" customWidth="1"/>
-    <col min="2" max="3" width="22.71875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="13" customWidth="1"/>
+    <col min="2" max="3" width="22.7109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A2" s="17">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A2" s="16">
         <v>44566</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A3" s="17">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A3" s="16">
         <v>44713</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A4" s="17">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A4" s="16">
         <v>44757</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A5" s="17">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A5" s="16">
         <v>44766</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A6" s="17">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A6" s="16">
         <v>44927</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A2" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A6" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A7" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A8" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.859375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.1484375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.4296875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="17.0078125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.578125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="16.2890625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.578125" style="3" customWidth="1"/>
-    <col min="12" max="13" width="13.578125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.4296875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.71875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.578125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.4296875" style="7" customWidth="1"/>
+    <col min="1" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:17">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:17">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>9988278</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>300</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>3324</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" t="s">
         <v>94</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" t="s">
         <v>95</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" t="s">
         <v>96</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="8">
         <v>93883282</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:17">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A3" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>9988279</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>301</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>3325</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" t="s">
         <v>101</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="8">
         <v>93883283</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.71875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.859375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.859375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.4296875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.4296875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.2890625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="30.1484375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.0078125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.578125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:14">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:14">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>9988756</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>9831</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" t="s">
         <v>117</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
         <v>9812</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:14">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A3" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>9988758</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>432113</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" t="s">
         <v>126</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" t="s">
         <v>127</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <v>344123</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.859375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A6" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.578125" style="3" customWidth="1"/>
+    <col min="1" max="2" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A3" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3534,23 +3179,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Filexel/lainlain.xlsx
+++ b/Filexel/lainlain.xlsx
@@ -8,34 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Filexel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FB90C3-E985-4BBC-A825-68AE5A44B997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBBD146-848E-4BB2-A876-AD59AC75E34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9345" yWindow="1485" windowWidth="24585" windowHeight="9120" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1410" windowWidth="19305" windowHeight="8280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pegawai" sheetId="1" r:id="rId1"/>
-    <sheet name="Instansi" sheetId="2" r:id="rId2"/>
-    <sheet name="Harilibur" sheetId="3" r:id="rId3"/>
-    <sheet name="pekerjaan" sheetId="4" r:id="rId4"/>
-    <sheet name="DaftarUpt" sheetId="5" r:id="rId5"/>
-    <sheet name="Kanwil" sheetId="6" r:id="rId6"/>
-    <sheet name="JenisSuku" sheetId="7" r:id="rId7"/>
-    <sheet name="DaerahTingkatII" sheetId="8" r:id="rId8"/>
-    <sheet name="NamaNegara" sheetId="9" r:id="rId9"/>
-    <sheet name="Provinsi" sheetId="10" r:id="rId10"/>
-    <sheet name="PengadilanNegeri" sheetId="11" r:id="rId11"/>
-    <sheet name="PengadilanTinggi" sheetId="12" r:id="rId12"/>
-    <sheet name="JenisRegistrasi" sheetId="13" r:id="rId13"/>
-    <sheet name="manajemenpengguna" sheetId="14" r:id="rId14"/>
-    <sheet name="JenisKejahatan" sheetId="15" r:id="rId15"/>
-    <sheet name="Lain-lain" sheetId="16" r:id="rId16"/>
+    <sheet name="TamuDinas" sheetId="17" r:id="rId2"/>
+    <sheet name="Instansi" sheetId="2" r:id="rId3"/>
+    <sheet name="Harilibur" sheetId="3" r:id="rId4"/>
+    <sheet name="pekerjaan" sheetId="4" r:id="rId5"/>
+    <sheet name="DaftarUpt" sheetId="5" r:id="rId6"/>
+    <sheet name="Kanwil" sheetId="6" r:id="rId7"/>
+    <sheet name="JenisSuku" sheetId="7" r:id="rId8"/>
+    <sheet name="DaerahTingkatII" sheetId="8" r:id="rId9"/>
+    <sheet name="NamaNegara" sheetId="9" r:id="rId10"/>
+    <sheet name="Provinsi" sheetId="10" r:id="rId11"/>
+    <sheet name="PengadilanNegeri" sheetId="11" r:id="rId12"/>
+    <sheet name="PengadilanTinggi" sheetId="12" r:id="rId13"/>
+    <sheet name="JenisRegistrasi" sheetId="13" r:id="rId14"/>
+    <sheet name="manajemenpengguna" sheetId="14" r:id="rId15"/>
+    <sheet name="JenisKejahatan" sheetId="15" r:id="rId16"/>
+    <sheet name="Lain-lain" sheetId="16" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="300">
   <si>
     <t>NIP</t>
   </si>
@@ -73,9 +74,6 @@
     <t>Telepon</t>
   </si>
   <si>
-    <t>PGW1</t>
-  </si>
-  <si>
     <t>Bandung</t>
   </si>
   <si>
@@ -85,9 +83,6 @@
     <t>Laki-laki</t>
   </si>
   <si>
-    <t>Keterangan Alamat</t>
-  </si>
-  <si>
     <t>Qa</t>
   </si>
   <si>
@@ -103,12 +98,6 @@
     <t>testing@gmail.com</t>
   </si>
   <si>
-    <t>082736153</t>
-  </si>
-  <si>
-    <t>PGW2</t>
-  </si>
-  <si>
     <t>Operator</t>
   </si>
   <si>
@@ -121,15 +110,6 @@
     <t>Check</t>
   </si>
   <si>
-    <t>0823746827</t>
-  </si>
-  <si>
-    <t>PGW3</t>
-  </si>
-  <si>
-    <t>BAndung</t>
-  </si>
-  <si>
     <t>Head</t>
   </si>
   <si>
@@ -139,9 +119,6 @@
     <t>Operation</t>
   </si>
   <si>
-    <t>093187443</t>
-  </si>
-  <si>
     <t>Instansi</t>
   </si>
   <si>
@@ -737,18 +714,247 @@
   </si>
   <si>
     <t>Kosong aja lah</t>
+  </si>
+  <si>
+    <t>NIP387410759834002</t>
+  </si>
+  <si>
+    <t>NIP387410759834001</t>
+  </si>
+  <si>
+    <t>NIP387410759834003</t>
+  </si>
+  <si>
+    <t>NIP387410759834004</t>
+  </si>
+  <si>
+    <t>NIP387410759834005</t>
+  </si>
+  <si>
+    <t>NIP387410759834006</t>
+  </si>
+  <si>
+    <t>NIP387410759834007</t>
+  </si>
+  <si>
+    <t>NIP387410759834008</t>
+  </si>
+  <si>
+    <t>NIP387410759834009</t>
+  </si>
+  <si>
+    <t>NIP387410759834010</t>
+  </si>
+  <si>
+    <t>PEGWAI001</t>
+  </si>
+  <si>
+    <t>PEGWAI002</t>
+  </si>
+  <si>
+    <t>PEGWAI003</t>
+  </si>
+  <si>
+    <t>PEGWAI004</t>
+  </si>
+  <si>
+    <t>PEGWAI005</t>
+  </si>
+  <si>
+    <t>PEGWAI006</t>
+  </si>
+  <si>
+    <t>PEGWAI007</t>
+  </si>
+  <si>
+    <t>PEGWAI008</t>
+  </si>
+  <si>
+    <t>PEGWAI009</t>
+  </si>
+  <si>
+    <t>PEGWAI010</t>
+  </si>
+  <si>
+    <t>30/08/1998</t>
+  </si>
+  <si>
+    <t>19/10/1998</t>
+  </si>
+  <si>
+    <t>Perempuan</t>
+  </si>
+  <si>
+    <t>Keterangan Alamat Pegawai 001</t>
+  </si>
+  <si>
+    <t>Keterangan Alamat Pegawai 002</t>
+  </si>
+  <si>
+    <t>Keterangan Alamat Pegawai 003</t>
+  </si>
+  <si>
+    <t>Keterangan Alamat Pegawai 004</t>
+  </si>
+  <si>
+    <t>Keterangan Alamat Pegawai 005</t>
+  </si>
+  <si>
+    <t>Keterangan Alamat Pegawai 006</t>
+  </si>
+  <si>
+    <t>Keterangan Alamat Pegawai 007</t>
+  </si>
+  <si>
+    <t>Keterangan Alamat Pegawai 008</t>
+  </si>
+  <si>
+    <t>Keterangan Alamat Pegawai 009</t>
+  </si>
+  <si>
+    <t>Keterangan Alamat Pegawai 010</t>
+  </si>
+  <si>
+    <t>07/04/1999</t>
+  </si>
+  <si>
+    <t>087563728768</t>
+  </si>
+  <si>
+    <t>24/06/2000</t>
+  </si>
+  <si>
+    <t>01/09/1998</t>
+  </si>
+  <si>
+    <t>Alamat Instansi</t>
+  </si>
+  <si>
+    <t>NIP128873346483001</t>
+  </si>
+  <si>
+    <t>NIP128873346483002</t>
+  </si>
+  <si>
+    <t>NIP128873346483003</t>
+  </si>
+  <si>
+    <t>NIP128873346483004</t>
+  </si>
+  <si>
+    <t>NIP128873346483005</t>
+  </si>
+  <si>
+    <t>NIP128873346483006</t>
+  </si>
+  <si>
+    <t>NIP128873346483007</t>
+  </si>
+  <si>
+    <t>NIP128873346483008</t>
+  </si>
+  <si>
+    <t>NIP128873346483009</t>
+  </si>
+  <si>
+    <t>NIP128873346483010</t>
+  </si>
+  <si>
+    <t>Rexy</t>
+  </si>
+  <si>
+    <t>Cahyo</t>
+  </si>
+  <si>
+    <t>Riksa</t>
+  </si>
+  <si>
+    <t>Ihsan</t>
+  </si>
+  <si>
+    <t>Satria</t>
+  </si>
+  <si>
+    <t>Galih</t>
+  </si>
+  <si>
+    <t>Dika</t>
+  </si>
+  <si>
+    <t>Karomah</t>
+  </si>
+  <si>
+    <t>Engkong</t>
+  </si>
+  <si>
+    <t>Wildannn</t>
+  </si>
+  <si>
+    <t>Tamu</t>
+  </si>
+  <si>
+    <t>Dinas</t>
+  </si>
+  <si>
+    <t>TRCH</t>
+  </si>
+  <si>
+    <t>POLRES BANDUNG</t>
+  </si>
+  <si>
+    <t>Alamat Tamu Dinas 001</t>
+  </si>
+  <si>
+    <t>Alamat Tamu Dinas 002</t>
+  </si>
+  <si>
+    <t>Alamat Tamu Dinas 003</t>
+  </si>
+  <si>
+    <t>Alamat Tamu Dinas 004</t>
+  </si>
+  <si>
+    <t>Alamat Tamu Dinas 005</t>
+  </si>
+  <si>
+    <t>Alamat Tamu Dinas 006</t>
+  </si>
+  <si>
+    <t>Alamat Tamu Dinas 007</t>
+  </si>
+  <si>
+    <t>Alamat Tamu Dinas 008</t>
+  </si>
+  <si>
+    <t>Alamat Tamu Dinas 009</t>
+  </si>
+  <si>
+    <t>Alamat Tamu Dinas 010</t>
+  </si>
+  <si>
+    <t>Kuningan</t>
+  </si>
+  <si>
+    <t>Ketrangan Tambah Tamu Dinas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -795,15 +1001,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF606266"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF606266"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
   </fonts>
@@ -827,103 +1055,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1231,279 +1435,483 @@
   </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="24.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="23" customFormat="1">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="21" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="22" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="22" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="19" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A2" s="26">
-        <v>982692374</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A3" s="26">
-        <v>56457634</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="35.25" customHeight="1">
-      <c r="A4" s="26">
-        <v>324532452</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="31"/>
-    </row>
-    <row r="6" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
-    </row>
-    <row r="7" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
-    </row>
-    <row r="8" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
-    </row>
-    <row r="9" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
-    </row>
-    <row r="10" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
-    </row>
-    <row r="11" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
+    <row r="1" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1520,26 +1928,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" customHeight="1">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1547,7 +1955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1572,30 +1980,30 @@
         <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C2" s="8">
         <v>40525</v>
@@ -1607,21 +2015,21 @@
         <v>998393</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C3" s="8">
         <v>40526</v>
@@ -1633,21 +2041,21 @@
         <v>998394</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C4" s="8">
         <v>40527</v>
@@ -1659,13 +2067,13 @@
         <v>998395</v>
       </c>
       <c r="F4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" t="s">
         <v>152</v>
-      </c>
-      <c r="G4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1673,7 +2081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1697,30 +2105,30 @@
         <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C2" s="8">
         <v>40525</v>
@@ -1732,21 +2140,21 @@
         <v>998393</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C3" s="8">
         <v>40526</v>
@@ -1758,21 +2166,21 @@
         <v>998394</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C4" s="8">
         <v>40527</v>
@@ -1784,13 +2192,13 @@
         <v>998395</v>
       </c>
       <c r="F4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" t="s">
         <v>152</v>
-      </c>
-      <c r="G4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1798,7 +2206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1821,40 +2229,40 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1">
       <c r="A1" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="K1" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M1" s="7"/>
     </row>
@@ -1863,13 +2271,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
@@ -1904,13 +2312,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E3" s="8">
         <v>2</v>
@@ -1945,13 +2353,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E4" s="8">
         <v>3</v>
@@ -1986,7 +2394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2012,162 +2420,162 @@
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="J1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="K1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C2" s="5">
         <v>834762739645783</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5">
         <v>8637465347234</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="J2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C3" s="5">
         <v>834762739645783</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E3" s="5">
         <v>8637465347234</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="K3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19.5" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C4" s="5">
         <v>834762739645783</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E4" s="5">
         <v>8637465347234</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="J4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C5" s="5">
         <v>834762739645783</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E5" s="5">
         <v>8637465347234</v>
       </c>
       <c r="F5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="J5" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="K5" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2175,7 +2583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2191,26 +2599,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2218,203 +2626,201 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8881C2DC-9E0F-4785-938B-6030BDE9CB9F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="33"/>
-    <col min="2" max="2" width="17.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="33"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B8" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="35" t="s">
+      <c r="B9" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="B10" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="35" t="s">
+      <c r="D10" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="35" t="s">
+      <c r="B11" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="C11" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="35" t="s">
+      <c r="B12" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="D12" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="35" t="s">
+      <c r="B13" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="35" t="s">
+      <c r="D13" s="20" t="s">
         <v>225</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2424,6 +2830,383 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CB90E1-5610-49B7-9600-1B463254B012}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" t="s">
+        <v>287</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F11" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2441,123 +3224,123 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1">
       <c r="A1" s="18" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.5" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.5" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.5" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2565,7 +3348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2582,13 +3365,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1">
@@ -2596,10 +3379,10 @@
         <v>44566</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1">
@@ -2607,10 +3390,10 @@
         <v>44713</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1">
@@ -2618,10 +3401,10 @@
         <v>44757</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" customHeight="1">
@@ -2629,10 +3412,10 @@
         <v>44766</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" customHeight="1">
@@ -2640,10 +3423,10 @@
         <v>44927</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2651,7 +3434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2667,52 +3450,52 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18.75" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18.75" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18.75" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18.75" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18.75" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18.75" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.75" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18.75" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2720,7 +3503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2750,105 +3533,105 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="L1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="O1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="Q1" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D2" s="8">
         <v>9988278</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G2" s="8">
         <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I2" s="8">
         <v>3324</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="N2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="O2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="8">
         <v>93883282</v>
@@ -2856,52 +3639,52 @@
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D3" s="8">
         <v>9988279</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G3" s="8">
         <v>301</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I3" s="8">
         <v>3325</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" t="s">
         <v>93</v>
       </c>
-      <c r="M3" t="s">
-        <v>101</v>
-      </c>
       <c r="N3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="O3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="Q3" s="8">
         <v>93883283</v>
@@ -2912,7 +3695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2941,87 +3724,87 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="L1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C2" s="8">
         <v>9988756</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J2" s="8">
         <v>9831</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="L2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="M2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="N2" s="8">
         <v>9812</v>
@@ -3029,43 +3812,43 @@
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C3" s="8">
         <v>9988758</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" t="s">
         <v>117</v>
-      </c>
-      <c r="I3" t="s">
-        <v>125</v>
       </c>
       <c r="J3" s="8">
         <v>432113</v>
       </c>
       <c r="K3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N3" s="8">
         <v>344123</v>
@@ -3076,7 +3859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3092,32 +3875,32 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75" customHeight="1">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18.75" customHeight="1">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18.75" customHeight="1">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18.75" customHeight="1">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18.75" customHeight="1">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3125,7 +3908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3141,57 +3924,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="18.75" customHeight="1">
-      <c r="A2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Filexel/lainlain.xlsx
+++ b/Filexel/lainlain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Filexel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBBD146-848E-4BB2-A876-AD59AC75E34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4C1D32-8CC6-44C7-91CC-601FF3F3D079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1410" windowWidth="19305" windowHeight="8280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="4575" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pegawai" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="359">
   <si>
     <t>NIP</t>
   </si>
@@ -44,12 +44,6 @@
     <t>Nama</t>
   </si>
   <si>
-    <t>Tempat Lahir</t>
-  </si>
-  <si>
-    <t>Tanggal Lahir</t>
-  </si>
-  <si>
     <t>Jenis Kelamin</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
     <t>Golongan</t>
   </si>
   <si>
-    <t>Bagian</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -77,48 +68,6 @@
     <t>Bandung</t>
   </si>
   <si>
-    <t>13/12/1997</t>
-  </si>
-  <si>
-    <t>Laki-laki</t>
-  </si>
-  <si>
-    <t>Qa</t>
-  </si>
-  <si>
-    <t>SPV</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>testing@gmail.com</t>
-  </si>
-  <si>
-    <t>Operator</t>
-  </si>
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Check</t>
-  </si>
-  <si>
-    <t>Head</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Operation</t>
-  </si>
-  <si>
     <t>Instansi</t>
   </si>
   <si>
@@ -716,115 +665,343 @@
     <t>Kosong aja lah</t>
   </si>
   <si>
-    <t>NIP387410759834002</t>
-  </si>
-  <si>
-    <t>NIP387410759834001</t>
-  </si>
-  <si>
-    <t>NIP387410759834003</t>
-  </si>
-  <si>
-    <t>NIP387410759834004</t>
-  </si>
-  <si>
-    <t>NIP387410759834005</t>
-  </si>
-  <si>
-    <t>NIP387410759834006</t>
-  </si>
-  <si>
-    <t>NIP387410759834007</t>
-  </si>
-  <si>
-    <t>NIP387410759834008</t>
-  </si>
-  <si>
-    <t>NIP387410759834009</t>
-  </si>
-  <si>
-    <t>NIP387410759834010</t>
-  </si>
-  <si>
-    <t>PEGWAI001</t>
-  </si>
-  <si>
-    <t>PEGWAI002</t>
-  </si>
-  <si>
-    <t>PEGWAI003</t>
-  </si>
-  <si>
-    <t>PEGWAI004</t>
-  </si>
-  <si>
-    <t>PEGWAI005</t>
-  </si>
-  <si>
-    <t>PEGWAI006</t>
-  </si>
-  <si>
-    <t>PEGWAI007</t>
-  </si>
-  <si>
-    <t>PEGWAI008</t>
-  </si>
-  <si>
-    <t>PEGWAI009</t>
-  </si>
-  <si>
-    <t>PEGWAI010</t>
-  </si>
-  <si>
-    <t>30/08/1998</t>
-  </si>
-  <si>
-    <t>19/10/1998</t>
-  </si>
-  <si>
-    <t>Perempuan</t>
-  </si>
-  <si>
-    <t>Keterangan Alamat Pegawai 001</t>
-  </si>
-  <si>
-    <t>Keterangan Alamat Pegawai 002</t>
-  </si>
-  <si>
-    <t>Keterangan Alamat Pegawai 003</t>
-  </si>
-  <si>
-    <t>Keterangan Alamat Pegawai 004</t>
-  </si>
-  <si>
-    <t>Keterangan Alamat Pegawai 005</t>
-  </si>
-  <si>
-    <t>Keterangan Alamat Pegawai 006</t>
-  </si>
-  <si>
-    <t>Keterangan Alamat Pegawai 007</t>
-  </si>
-  <si>
-    <t>Keterangan Alamat Pegawai 008</t>
-  </si>
-  <si>
-    <t>Keterangan Alamat Pegawai 009</t>
-  </si>
-  <si>
-    <t>Keterangan Alamat Pegawai 010</t>
-  </si>
-  <si>
-    <t>07/04/1999</t>
-  </si>
-  <si>
-    <t>087563728768</t>
-  </si>
-  <si>
-    <t>24/06/2000</t>
-  </si>
-  <si>
-    <t>01/09/1998</t>
+    <t>19810707 200703 1 001</t>
+  </si>
+  <si>
+    <t>19920308 201712 1 002</t>
+  </si>
+  <si>
+    <t>19720319 199303 1 001</t>
+  </si>
+  <si>
+    <t>19680604 199803 1 001</t>
+  </si>
+  <si>
+    <t>19730826 199903 2 001</t>
+  </si>
+  <si>
+    <t>19721206 199203 2 001</t>
+  </si>
+  <si>
+    <t>19650514 199402 2 001</t>
+  </si>
+  <si>
+    <t>19750912 200212 2 008</t>
+  </si>
+  <si>
+    <t>19701001 199102 2 001</t>
+  </si>
+  <si>
+    <t>19861209 200703 2 001</t>
+  </si>
+  <si>
+    <t>19851128 200912 2 005</t>
+  </si>
+  <si>
+    <t>19820611 200112 1 001</t>
+  </si>
+  <si>
+    <t>19821129 200112 1 001</t>
+  </si>
+  <si>
+    <t>19860323 200501 1 001</t>
+  </si>
+  <si>
+    <t>19821106 200801 1 001</t>
+  </si>
+  <si>
+    <t>19830128 200912 1 006</t>
+  </si>
+  <si>
+    <t>19820218 200901 2 004</t>
+  </si>
+  <si>
+    <t>19690811 199403 1 001</t>
+  </si>
+  <si>
+    <t>19680928 199002 1 001</t>
+  </si>
+  <si>
+    <t>19900510 201402 2 003</t>
+  </si>
+  <si>
+    <t>19870706 201402 1 002</t>
+  </si>
+  <si>
+    <t>19821214 200801 2 014</t>
+  </si>
+  <si>
+    <t>19740603 199903 1 001</t>
+  </si>
+  <si>
+    <t>19930123 201712 1 001</t>
+  </si>
+  <si>
+    <t>19950630 201712 1 001</t>
+  </si>
+  <si>
+    <t>19651013 198903 1 001</t>
+  </si>
+  <si>
+    <t>19880503 201402 1 004</t>
+  </si>
+  <si>
+    <t>ADITYA WAHYU RAHMADANI, SH</t>
+  </si>
+  <si>
+    <t>RIZKI RIDWAN RAMDANI, S. Psi</t>
+  </si>
+  <si>
+    <t>IWA KARTIWA AYUN SUHAYA, A.K.S.</t>
+  </si>
+  <si>
+    <t>ABADI PASARIBU, S.E.</t>
+  </si>
+  <si>
+    <t>HANDAYANI SUCIATI, A.K.S.</t>
+  </si>
+  <si>
+    <t>DESWATI RAHMAH, S.S.T.</t>
+  </si>
+  <si>
+    <t>NENENG DARLINA, A.K.S.</t>
+  </si>
+  <si>
+    <t>ANI SUTRIANI SUMANTARDJA, S.H.</t>
+  </si>
+  <si>
+    <t>HAMDIAH</t>
+  </si>
+  <si>
+    <t>DEBY HERYANTI SAGITA, S.E.</t>
+  </si>
+  <si>
+    <t>IRMA SITI KODARIAH, S.Sos.</t>
+  </si>
+  <si>
+    <t>SATRIA ARIF PERMANA</t>
+  </si>
+  <si>
+    <t>ERVAN HASAN MUSTOVA</t>
+  </si>
+  <si>
+    <t>ELGHA SANDRA ARIESMA</t>
+  </si>
+  <si>
+    <t>GUGUM PERMANA MADI</t>
+  </si>
+  <si>
+    <t>AHMAD SOPIAN, SH.</t>
+  </si>
+  <si>
+    <t>REVICA FEBRIYENI, SH.</t>
+  </si>
+  <si>
+    <t>SUPARMAN</t>
+  </si>
+  <si>
+    <t>ASEP SAEPULOH</t>
+  </si>
+  <si>
+    <t>YURI AGITA</t>
+  </si>
+  <si>
+    <t>MOCHAMAD ICHSAN SAMADI</t>
+  </si>
+  <si>
+    <t>SITI ROCHANIAH FATTAH</t>
+  </si>
+  <si>
+    <t>DONI AHMAD SOBANDI, A.K.S.</t>
+  </si>
+  <si>
+    <t>ADAM AHMAD NUGRAHA</t>
+  </si>
+  <si>
+    <t>FAUZAN MUHTADA ABDILLAH</t>
+  </si>
+  <si>
+    <t>AKHMAD KHAZAZI</t>
+  </si>
+  <si>
+    <t>DENI DARMANSYAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penata </t>
+  </si>
+  <si>
+    <t>III/c</t>
+  </si>
+  <si>
+    <t>III/d</t>
+  </si>
+  <si>
+    <t>III/b</t>
+  </si>
+  <si>
+    <t>Penata</t>
+  </si>
+  <si>
+    <t>III/a</t>
+  </si>
+  <si>
+    <t>II/c</t>
+  </si>
+  <si>
+    <t>I/ib</t>
+  </si>
+  <si>
+    <t>I/ia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penata TK. 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penata Muda </t>
+  </si>
+  <si>
+    <t>Penata Muda TK. I</t>
+  </si>
+  <si>
+    <t>Pengatur Muda Tingat 1</t>
+  </si>
+  <si>
+    <t>Pengatur Muda Tingat 2</t>
+  </si>
+  <si>
+    <t>Pengatur Muda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penata Muda TK.I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pengatur </t>
+  </si>
+  <si>
+    <t>KEPALA RUPBASAN KLAS I BANDUNG</t>
+  </si>
+  <si>
+    <t>KEPALA SUBSEKSI PENGAMANAN DAN PENGELOLAAN RUPBASAN KELAS I BANDUNG</t>
+  </si>
+  <si>
+    <t>PETUGAS JAGA / PENGAMANAN</t>
+  </si>
+  <si>
+    <t>PENGELOLA BARANG MILIK NEGARA</t>
+  </si>
+  <si>
+    <t>PENGELOLA DATA KEPEGAWAIAN</t>
+  </si>
+  <si>
+    <t>PENGELOLA KEUANGAN</t>
+  </si>
+  <si>
+    <t>PENGELOLA BASAN BARAN</t>
+  </si>
+  <si>
+    <t>PENGOLAH DATA LAPORAN</t>
+  </si>
+  <si>
+    <t>BENDAHARA PENGELUARAN SATKER</t>
+  </si>
+  <si>
+    <t>PRANATA LAPORAN KEUANGAN (PETUGAS SAI)</t>
+  </si>
+  <si>
+    <t>PETUGAS TATA USAHA</t>
+  </si>
+  <si>
+    <t>PENGELOLA BMN</t>
+  </si>
+  <si>
+    <t>PENGELOLA KEPEGAWAIAN/DATA KEPEGAWAIAN</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40293</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40295</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40296</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40297</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40300</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40302</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40303</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40304</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40305</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40307</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40309</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40311</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40312</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40313</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40314</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40315</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40316</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40317</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40320</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40321</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40323</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40324</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40325</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40326</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40327</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40328</t>
+  </si>
+  <si>
+    <t>Jl. Pacuan Kuda No.1, Sukamiskin, Kec. Arcamanik, Kota Bandung, Jawa Barat 40329</t>
   </si>
   <si>
     <t>Alamat Instansi</t>
@@ -833,121 +1010,135 @@
     <t>NIP128873346483001</t>
   </si>
   <si>
+    <t>Rexy</t>
+  </si>
+  <si>
+    <t>Tamu</t>
+  </si>
+  <si>
+    <t>TRCH</t>
+  </si>
+  <si>
+    <t>Dinas</t>
+  </si>
+  <si>
+    <t>POLRES BANDUNG</t>
+  </si>
+  <si>
+    <t>Alamat Tamu Dinas 001</t>
+  </si>
+  <si>
+    <t>Kuningan</t>
+  </si>
+  <si>
+    <t>Ketrangan Tambah Tamu Dinas</t>
+  </si>
+  <si>
     <t>NIP128873346483002</t>
   </si>
   <si>
+    <t>Cahyo</t>
+  </si>
+  <si>
+    <t>Alamat Tamu Dinas 002</t>
+  </si>
+  <si>
     <t>NIP128873346483003</t>
   </si>
   <si>
+    <t>Riksa</t>
+  </si>
+  <si>
+    <t>Alamat Tamu Dinas 003</t>
+  </si>
+  <si>
     <t>NIP128873346483004</t>
   </si>
   <si>
+    <t>Ihsan</t>
+  </si>
+  <si>
+    <t>Alamat Tamu Dinas 004</t>
+  </si>
+  <si>
     <t>NIP128873346483005</t>
   </si>
   <si>
+    <t>Satria</t>
+  </si>
+  <si>
+    <t>Alamat Tamu Dinas 005</t>
+  </si>
+  <si>
     <t>NIP128873346483006</t>
   </si>
   <si>
+    <t>Galih</t>
+  </si>
+  <si>
+    <t>Alamat Tamu Dinas 006</t>
+  </si>
+  <si>
     <t>NIP128873346483007</t>
   </si>
   <si>
+    <t>Dika</t>
+  </si>
+  <si>
+    <t>Alamat Tamu Dinas 007</t>
+  </si>
+  <si>
     <t>NIP128873346483008</t>
   </si>
   <si>
+    <t>Karomah</t>
+  </si>
+  <si>
+    <t>Alamat Tamu Dinas 008</t>
+  </si>
+  <si>
     <t>NIP128873346483009</t>
   </si>
   <si>
+    <t>Engkong</t>
+  </si>
+  <si>
+    <t>Alamat Tamu Dinas 009</t>
+  </si>
+  <si>
     <t>NIP128873346483010</t>
   </si>
   <si>
-    <t>Rexy</t>
-  </si>
-  <si>
-    <t>Cahyo</t>
-  </si>
-  <si>
-    <t>Riksa</t>
-  </si>
-  <si>
-    <t>Ihsan</t>
-  </si>
-  <si>
-    <t>Satria</t>
-  </si>
-  <si>
-    <t>Galih</t>
-  </si>
-  <si>
-    <t>Dika</t>
-  </si>
-  <si>
-    <t>Karomah</t>
-  </si>
-  <si>
-    <t>Engkong</t>
-  </si>
-  <si>
     <t>Wildannn</t>
   </si>
   <si>
-    <t>Tamu</t>
-  </si>
-  <si>
-    <t>Dinas</t>
-  </si>
-  <si>
-    <t>TRCH</t>
-  </si>
-  <si>
-    <t>POLRES BANDUNG</t>
-  </si>
-  <si>
-    <t>Alamat Tamu Dinas 001</t>
-  </si>
-  <si>
-    <t>Alamat Tamu Dinas 002</t>
-  </si>
-  <si>
-    <t>Alamat Tamu Dinas 003</t>
-  </si>
-  <si>
-    <t>Alamat Tamu Dinas 004</t>
-  </si>
-  <si>
-    <t>Alamat Tamu Dinas 005</t>
-  </si>
-  <si>
-    <t>Alamat Tamu Dinas 006</t>
-  </si>
-  <si>
-    <t>Alamat Tamu Dinas 007</t>
-  </si>
-  <si>
-    <t>Alamat Tamu Dinas 008</t>
-  </si>
-  <si>
-    <t>Alamat Tamu Dinas 009</t>
-  </si>
-  <si>
     <t>Alamat Tamu Dinas 010</t>
-  </si>
-  <si>
-    <t>Kuningan</t>
-  </si>
-  <si>
-    <t>Ketrangan Tambah Tamu Dinas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1026,24 +1217,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1051,86 +1255,145 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{62B05D41-E2B5-4458-B565-38DACFB478D9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1433,449 +1696,760 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="27" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="24.140625" style="25"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="37.42578125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="89" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="23" customFormat="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="I1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="24" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="26" t="s">
+      <c r="B20" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" s="29" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="27" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="B27" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="27" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>260</v>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1898,12 +2472,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" customHeight="1">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75" customHeight="1">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1928,26 +2502,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" customHeight="1">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1977,33 +2551,33 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="H1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C2" s="8">
         <v>40525</v>
@@ -2015,21 +2589,21 @@
         <v>998393</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C3" s="8">
         <v>40526</v>
@@ -2041,21 +2615,21 @@
         <v>998394</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C4" s="8">
         <v>40527</v>
@@ -2067,13 +2641,13 @@
         <v>998395</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2102,33 +2676,33 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="H1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C2" s="8">
         <v>40525</v>
@@ -2140,21 +2714,21 @@
         <v>998393</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C3" s="8">
         <v>40526</v>
@@ -2166,21 +2740,21 @@
         <v>998394</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C4" s="8">
         <v>40527</v>
@@ -2192,13 +2766,13 @@
         <v>998395</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2229,40 +2803,40 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="M1" s="7"/>
     </row>
@@ -2271,13 +2845,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
@@ -2312,13 +2886,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E3" s="8">
         <v>2</v>
@@ -2353,13 +2927,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E4" s="8">
         <v>3</v>
@@ -2420,162 +2994,162 @@
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="G1" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="J1" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="K1" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C2" s="5">
         <v>834762739645783</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E2" s="5">
         <v>8637465347234</v>
       </c>
       <c r="F2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="J2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="K2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C3" s="5">
         <v>834762739645783</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E3" s="5">
         <v>8637465347234</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
         <v>61</v>
       </c>
-      <c r="H3" t="s">
-        <v>78</v>
-      </c>
       <c r="J3" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="K3" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19.5" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C4" s="5">
         <v>834762739645783</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E4" s="5">
         <v>8637465347234</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H4" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="I4" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="J4" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C5" s="5">
         <v>834762739645783</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E5" s="5">
         <v>8637465347234</v>
       </c>
       <c r="F5" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="J5" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="K5" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2599,26 +3173,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2643,184 +3217,184 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="20" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="20" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="20" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="20" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="20" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>220</v>
-      </c>
       <c r="C6" s="20" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="20" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="20" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="20" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="20" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>208</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="20" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="20" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2831,376 +3405,549 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CB90E1-5610-49B7-9600-1B463254B012}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="27" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F4" t="s">
-        <v>287</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F5" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F8" t="s">
-        <v>287</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F9" t="s">
-        <v>287</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F10" t="s">
-        <v>287</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F11" t="s">
-        <v>287</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>299</v>
-      </c>
+      <c r="E1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="42"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="43"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="45"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="43"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="43"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="43"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="43"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="28"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3224,123 +3971,123 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1">
       <c r="A1" s="18" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.5" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.5" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.5" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19.5" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19.5" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3365,13 +4112,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1">
@@ -3379,10 +4126,10 @@
         <v>44566</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1">
@@ -3390,10 +4137,10 @@
         <v>44713</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1">
@@ -3401,10 +4148,10 @@
         <v>44757</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" customHeight="1">
@@ -3412,10 +4159,10 @@
         <v>44766</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" customHeight="1">
@@ -3423,10 +4170,10 @@
         <v>44927</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3450,52 +4197,52 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18.75" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18.75" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18.75" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18.75" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18.75" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18.75" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.75" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18.75" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3533,105 +4280,105 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D2" s="8">
         <v>9988278</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G2" s="8">
         <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="I2" s="8">
         <v>3324</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="M2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="N2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="O2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="8">
         <v>93883282</v>
@@ -3639,52 +4386,52 @@
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D3" s="8">
         <v>9988279</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G3" s="8">
         <v>301</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="I3" s="8">
         <v>3325</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="M3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="N3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="O3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="P3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="8">
         <v>93883283</v>
@@ -3724,87 +4471,87 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="K1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C2" s="8">
         <v>9988756</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="J2" s="8">
         <v>9831</v>
       </c>
       <c r="K2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="M2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="N2" s="8">
         <v>9812</v>
@@ -3812,43 +4559,43 @@
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C3" s="8">
         <v>9988758</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J3" s="8">
         <v>432113</v>
       </c>
       <c r="K3" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="L3" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="M3" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="N3" s="8">
         <v>344123</v>
@@ -3875,32 +4622,32 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75" customHeight="1">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18.75" customHeight="1">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18.75" customHeight="1">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18.75" customHeight="1">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18.75" customHeight="1">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3924,26 +4671,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Filexel/lainlain.xlsx
+++ b/Filexel/lainlain.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Filexel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19CA81E-A8E5-4906-BFE6-9A9437BAC776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pegawai" sheetId="1" r:id="rId1"/>
@@ -25,12 +31,12 @@
     <sheet name="JenisKejahatan" sheetId="16" r:id="rId16"/>
     <sheet name="Lain-lain" sheetId="17" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="606">
   <si>
     <t>NIP</t>
   </si>
@@ -1903,78 +1909,12 @@
     <t>TEST 03</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Nip</t>
-  </si>
-  <si>
-    <t>No Hp</t>
-  </si>
-  <si>
-    <t>Unit Kerja</t>
-  </si>
-  <si>
-    <t>Tipe</t>
-  </si>
-  <si>
-    <t>UPT</t>
-  </si>
-  <si>
     <t>Level</t>
   </si>
   <si>
-    <t>Aktif Level</t>
-  </si>
-  <si>
-    <t>userlima</t>
-  </si>
-  <si>
-    <t>cahtes</t>
-  </si>
-  <si>
-    <t>tes@gmail.com</t>
-  </si>
-  <si>
-    <t>ditjenpas</t>
-  </si>
-  <si>
-    <t>Pusat</t>
-  </si>
-  <si>
-    <t>UAT</t>
-  </si>
-  <si>
-    <t>userenam</t>
-  </si>
-  <si>
-    <t>polda</t>
-  </si>
-  <si>
-    <t>Kepala Seksi</t>
-  </si>
-  <si>
-    <t>usertuju</t>
-  </si>
-  <si>
-    <t>polsek</t>
-  </si>
-  <si>
-    <t>Lampung</t>
-  </si>
-  <si>
-    <t>Lapas Kelas I Bandar Lampung</t>
-  </si>
-  <si>
-    <t>userdelapan</t>
-  </si>
-  <si>
-    <t>Administrasi</t>
-  </si>
-  <si>
     <t>JenisKejahatan</t>
   </si>
   <si>
@@ -2075,20 +2015,394 @@
   </si>
   <si>
     <t>Angka 8 (mulai kanan bawah)</t>
+  </si>
+  <si>
+    <t>KANWIL</t>
+  </si>
+  <si>
+    <t>RUPBASAN</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Spv Password</t>
+  </si>
+  <si>
+    <t>LAMPUNG</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I B. Lampung</t>
+  </si>
+  <si>
+    <t>opbanlampung</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Operator Rupbasan</t>
+  </si>
+  <si>
+    <t>spvbanlampung</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Metro</t>
+  </si>
+  <si>
+    <t>opmetro</t>
+  </si>
+  <si>
+    <t>spvmetro</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Kotabumi</t>
+  </si>
+  <si>
+    <t>opkotabumi</t>
+  </si>
+  <si>
+    <t>spvkotabumi</t>
+  </si>
+  <si>
+    <t>BANTEN</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Serang</t>
+  </si>
+  <si>
+    <t>oprupserang</t>
+  </si>
+  <si>
+    <t>spvserang</t>
+  </si>
+  <si>
+    <t>DKI JAKARTA</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Jakarta Barat</t>
+  </si>
+  <si>
+    <t>oprupjakbar</t>
+  </si>
+  <si>
+    <t>spvjakbar</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Jakarta Selatan</t>
+  </si>
+  <si>
+    <t>oprupjaksel</t>
+  </si>
+  <si>
+    <t>spvjaksel</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Jakarta Timur</t>
+  </si>
+  <si>
+    <t>oprupjaktim</t>
+  </si>
+  <si>
+    <t>spvjaktim</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Jakarta Utara</t>
+  </si>
+  <si>
+    <t>oprupjakut</t>
+  </si>
+  <si>
+    <t>spvjakut</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Jakarta Pusat</t>
+  </si>
+  <si>
+    <t>oprupjakpus</t>
+  </si>
+  <si>
+    <t>JAWA BARAT</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Bandung</t>
+  </si>
+  <si>
+    <t>oprupbasanbdg</t>
+  </si>
+  <si>
+    <t>spv-bdg</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Cirebon</t>
+  </si>
+  <si>
+    <t>oprupcirebon</t>
+  </si>
+  <si>
+    <t>spvcirebon</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Indramayu</t>
+  </si>
+  <si>
+    <t>rub-indramayu</t>
+  </si>
+  <si>
+    <t>spvindramayu</t>
+  </si>
+  <si>
+    <t>NAD</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Aceh</t>
+  </si>
+  <si>
+    <t>SUMUT</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Medan</t>
+  </si>
+  <si>
+    <t>SUMBAR</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Padang</t>
+  </si>
+  <si>
+    <t>RIAU</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Pekanbaru</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Bangkinang</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Bengkalis</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Rengat</t>
+  </si>
+  <si>
+    <t>KEPRI</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Tanjung Pinang</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Jambi</t>
+  </si>
+  <si>
+    <t>SUMSEL</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Palembang</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Baturaja</t>
+  </si>
+  <si>
+    <t>BABEL</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Pangkal Pinang</t>
+  </si>
+  <si>
+    <t>BENGKULU</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Bengkulu</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Arga Makmur</t>
+  </si>
+  <si>
+    <t>JAWA TENGAH</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Semarang</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Surakarta</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Pekalongan</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Wonogiri</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Cilacap</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Purbalingga</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Purwokerto</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Sragen</t>
+  </si>
+  <si>
+    <t>DIY</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Yogyakarta</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Wonosari</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Wates</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Bantul</t>
+  </si>
+  <si>
+    <t>JAWA TIMUR</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Surabaya</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Blitar</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Jombang</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Mojokerto</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Probolinggo</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Pasuruan</t>
+  </si>
+  <si>
+    <t>KALBAR</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Pontianak</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Singkawang</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Sanggau</t>
+  </si>
+  <si>
+    <t>KALTENG</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Palangkaraya</t>
+  </si>
+  <si>
+    <t>KALSEL</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Banjarmasin</t>
+  </si>
+  <si>
+    <t>KALTIM</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Samarinda</t>
+  </si>
+  <si>
+    <t>SULUT</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Manado</t>
+  </si>
+  <si>
+    <t>SULSEL</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Makassar</t>
+  </si>
+  <si>
+    <t>SULTENG</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Palu</t>
+  </si>
+  <si>
+    <t>SULTRA</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Kendari</t>
+  </si>
+  <si>
+    <t>GORONTALO</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Gorontalo</t>
+  </si>
+  <si>
+    <t>SULBAR</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Mamuju</t>
+  </si>
+  <si>
+    <t>BALI</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Denpasar</t>
+  </si>
+  <si>
+    <t>NTB</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Mataram</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Sumbawa Besar</t>
+  </si>
+  <si>
+    <t>NTT</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Kupang</t>
+  </si>
+  <si>
+    <t>MALUKU</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Ambon</t>
+  </si>
+  <si>
+    <t>MALUT</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas II Ternate</t>
+  </si>
+  <si>
+    <t>PAPUA</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Jayapura</t>
+  </si>
+  <si>
+    <t>PAPUA BRT</t>
+  </si>
+  <si>
+    <t>Rupb. Kelas I Manokwari</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2100,37 +2414,34 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF606266"/>
       <name val="Roboto"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF313132"/>
       <name val="Roboto"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF606266"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2143,150 +2454,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2295,8 +2463,34 @@
       <name val="Menlo"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2305,192 +2499,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2499,404 +2537,190 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="48" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3181,3107 +3005,4034 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.0078125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.2890625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="13.71875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="14.0078125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.578125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="32.4296875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="13.796875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="32.0234375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="10.1484375" style="21" customWidth="1"/>
-    <col min="10" max="10" width="10.2890625" style="21" customWidth="1"/>
-    <col min="11" max="11" width="19.859375" style="21" customWidth="1"/>
-    <col min="12" max="12" width="14.859375" style="21" customWidth="1"/>
-    <col min="13" max="13" width="9" style="22"/>
-    <col min="14" max="14" width="15.5625" style="22"/>
-    <col min="15" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="22" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:12" s="15" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="33" customHeight="1" spans="1:12">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:12" ht="33" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="31">
+      <c r="L2" s="23">
         <v>620798483470</v>
       </c>
     </row>
-    <row r="3" ht="33" customHeight="1" spans="1:12">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:12" ht="33" customHeight="1">
+      <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="23">
         <v>861449743</v>
       </c>
     </row>
-    <row r="4" ht="33" customHeight="1" spans="1:12">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:12" ht="33" customHeight="1">
+      <c r="A4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="23">
         <v>62346145373</v>
       </c>
     </row>
-    <row r="5" ht="33" customHeight="1" spans="1:12">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:12" ht="33" customHeight="1">
+      <c r="A5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="23">
         <v>62645235017</v>
       </c>
     </row>
-    <row r="6" ht="33" customHeight="1" spans="1:12">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:12" ht="33" customHeight="1">
+      <c r="A6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="23">
         <v>629651034854</v>
       </c>
     </row>
-    <row r="7" ht="33" customHeight="1" spans="1:12">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:12" ht="33" customHeight="1">
+      <c r="A7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="23">
         <v>4588842155</v>
       </c>
     </row>
-    <row r="8" ht="33" customHeight="1" spans="1:12">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:12" ht="33" customHeight="1">
+      <c r="A8" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="23">
         <v>54889871</v>
       </c>
     </row>
-    <row r="9" ht="33" customHeight="1" spans="1:12">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:12" ht="33" customHeight="1">
+      <c r="A9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="23">
         <v>620523701710</v>
       </c>
     </row>
-    <row r="10" ht="33" customHeight="1" spans="1:12">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:12" ht="33" customHeight="1">
+      <c r="A10" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="23">
         <v>512245236</v>
       </c>
     </row>
-    <row r="11" ht="33" customHeight="1" spans="1:12">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:12" ht="33" customHeight="1">
+      <c r="A11" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K11" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="23">
         <v>620286276299</v>
       </c>
     </row>
-    <row r="12" ht="42" spans="1:12">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:12" ht="45">
+      <c r="A12" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="23">
         <v>620086540504</v>
       </c>
     </row>
-    <row r="13" ht="42" spans="1:12">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:12" ht="45">
+      <c r="A13" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="23">
         <v>62661125442</v>
       </c>
     </row>
-    <row r="14" ht="42" spans="1:12">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:12" ht="60">
+      <c r="A14" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="23">
         <v>627672578592</v>
       </c>
     </row>
-    <row r="15" ht="84" spans="1:12">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:12" ht="90">
+      <c r="A15" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="23">
         <v>629907703463</v>
       </c>
     </row>
-    <row r="16" ht="70" spans="1:12">
-      <c r="A16" s="24" t="s">
+    <row r="16" spans="1:12" ht="105">
+      <c r="A16" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="23">
         <v>880536378</v>
       </c>
     </row>
-    <row r="17" ht="42" spans="1:12">
-      <c r="A17" s="24" t="s">
+    <row r="17" spans="1:12" ht="45">
+      <c r="A17" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="26" t="s">
+      <c r="K17" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="L17" s="31">
-        <v>288358102325.786</v>
-      </c>
-    </row>
-    <row r="18" ht="42" spans="1:12">
-      <c r="A18" s="24" t="s">
+      <c r="L17" s="23">
+        <v>288358102325.78601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="60">
+      <c r="A18" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K18" s="26" t="s">
+      <c r="K18" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="23">
         <v>266819770143.216</v>
       </c>
     </row>
-    <row r="19" ht="84" spans="1:12">
-      <c r="A19" s="24" t="s">
+    <row r="19" spans="1:12" ht="90">
+      <c r="A19" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="K19" s="26" t="s">
+      <c r="K19" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="L19" s="31">
-        <v>245281437960.645</v>
-      </c>
-    </row>
-    <row r="20" ht="70" spans="1:12">
-      <c r="A20" s="24" t="s">
+      <c r="L19" s="23">
+        <v>245281437960.64499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="105">
+      <c r="A20" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="L20" s="31">
-        <v>223743105778.075</v>
-      </c>
-    </row>
-    <row r="21" ht="70" spans="1:12">
-      <c r="A21" s="24" t="s">
+      <c r="L20" s="23">
+        <v>223743105778.07501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="90">
+      <c r="A21" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="K21" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="23">
         <v>202204773595.504</v>
       </c>
     </row>
-    <row r="22" ht="84" spans="1:12">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:12" ht="90">
+      <c r="A22" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="K22" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="L22" s="31">
-        <v>180666441412.934</v>
-      </c>
-    </row>
-    <row r="23" ht="70" spans="1:12">
-      <c r="A23" s="24" t="s">
+      <c r="L22" s="23">
+        <v>180666441412.93399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="75">
+      <c r="A23" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="26" t="s">
+      <c r="K23" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="L23" s="31">
-        <v>159128109230.364</v>
-      </c>
-    </row>
-    <row r="24" ht="42" spans="1:12">
-      <c r="A24" s="24" t="s">
+      <c r="L23" s="23">
+        <v>159128109230.36401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="45">
+      <c r="A24" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="J24" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="K24" s="26" t="s">
+      <c r="K24" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="L24" s="31">
+      <c r="L24" s="23">
         <v>137589777047.793</v>
       </c>
     </row>
-    <row r="25" ht="28" spans="1:12">
-      <c r="A25" s="24" t="s">
+    <row r="25" spans="1:12" ht="30">
+      <c r="A25" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="26" t="s">
+      <c r="K25" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="L25" s="31">
-        <v>116051444865.223</v>
-      </c>
-    </row>
-    <row r="26" ht="42" spans="1:12">
-      <c r="A26" s="24" t="s">
+      <c r="L25" s="23">
+        <v>116051444865.22301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="45">
+      <c r="A26" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="26" t="s">
+      <c r="J26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="26" t="s">
+      <c r="K26" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="31">
-        <v>94513112682.6522</v>
-      </c>
-    </row>
-    <row r="27" ht="28" spans="1:12">
-      <c r="A27" s="24" t="s">
+      <c r="L26" s="23">
+        <v>94513112682.652206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="45">
+      <c r="A27" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="J27" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L27" s="31">
-        <v>72974780500.0818</v>
-      </c>
-    </row>
-    <row r="28" ht="56" spans="1:12">
-      <c r="A28" s="24" t="s">
+      <c r="L27" s="23">
+        <v>72974780500.081802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="60">
+      <c r="A28" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="J28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="K28" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="L28" s="31">
-        <v>51436448317.5114</v>
-      </c>
-    </row>
-    <row r="29" ht="42" spans="1:12">
-      <c r="A29" s="24" t="s">
+      <c r="L28" s="23">
+        <v>51436448317.511398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="45">
+      <c r="A29" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="J29" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K29" s="26" t="s">
+      <c r="K29" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L29" s="31">
-        <v>29898116134.9409</v>
-      </c>
-    </row>
-    <row r="30" ht="42" spans="1:12">
-      <c r="A30" s="24" t="s">
+      <c r="L29" s="23">
+        <v>29898116134.940899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="60">
+      <c r="A30" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="30" t="s">
+      <c r="I30" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="26" t="s">
+      <c r="J30" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="K30" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L30" s="31">
-        <v>8359783952.37048</v>
-      </c>
-    </row>
-    <row r="31" ht="84" spans="1:12">
-      <c r="A31" s="24" t="s">
+      <c r="L30" s="23">
+        <v>8359783952.3704796</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="90">
+      <c r="A31" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I31" s="30" t="s">
+      <c r="I31" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="K31" s="32" t="s">
+      <c r="K31" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="L31" s="31">
-        <v>-13178548230.2</v>
-      </c>
-    </row>
-    <row r="32" ht="70" spans="1:12">
-      <c r="A32" s="24" t="s">
+      <c r="L31" s="23">
+        <v>-13178548230.200001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="105">
+      <c r="A32" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="30" t="s">
+      <c r="I32" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="26" t="s">
+      <c r="J32" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K32" s="26" t="s">
+      <c r="K32" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="L32" s="31">
-        <v>-34716880412.7704</v>
-      </c>
-    </row>
-    <row r="33" ht="70" spans="1:12">
-      <c r="A33" s="24" t="s">
+      <c r="L32" s="23">
+        <v>-34716880412.770401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="90">
+      <c r="A33" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="30" t="s">
+      <c r="I33" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="26" t="s">
+      <c r="J33" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="K33" s="26" t="s">
+      <c r="K33" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="L33" s="31">
-        <v>-56255212595.3408</v>
-      </c>
-    </row>
-    <row r="34" ht="84" spans="1:12">
-      <c r="A34" s="24" t="s">
+      <c r="L33" s="23">
+        <v>-56255212595.340797</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="90">
+      <c r="A34" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I34" s="30" t="s">
+      <c r="I34" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J34" s="26" t="s">
+      <c r="J34" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="K34" s="26" t="s">
+      <c r="K34" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="L34" s="31">
-        <v>-77793544777.9113</v>
-      </c>
-    </row>
-    <row r="35" ht="70" spans="1:12">
-      <c r="A35" s="24" t="s">
+      <c r="L34" s="23">
+        <v>-77793544777.911301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="75">
+      <c r="A35" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I35" s="30" t="s">
+      <c r="I35" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J35" s="26" t="s">
+      <c r="J35" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="K35" s="26" t="s">
+      <c r="K35" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="L35" s="31">
-        <v>-99331876960.4817</v>
-      </c>
-    </row>
-    <row r="36" ht="42" spans="1:12">
-      <c r="A36" s="24" t="s">
+      <c r="L35" s="23">
+        <v>-99331876960.481705</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="45">
+      <c r="A36" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="H36" s="26" t="s">
+      <c r="H36" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I36" s="30" t="s">
+      <c r="I36" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="26" t="s">
+      <c r="J36" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="K36" s="26" t="s">
+      <c r="K36" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="L36" s="31">
+      <c r="L36" s="23">
         <v>-120870209143.052</v>
       </c>
     </row>
-    <row r="37" ht="42" spans="1:12">
-      <c r="A37" s="24" t="s">
+    <row r="37" spans="1:12" ht="45">
+      <c r="A37" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="26" t="s">
+      <c r="H37" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="I37" s="30" t="s">
+      <c r="I37" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="26" t="s">
+      <c r="J37" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="26" t="s">
+      <c r="K37" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="L37" s="31">
-        <v>-142408541325.623</v>
-      </c>
-    </row>
-    <row r="38" ht="42" spans="1:12">
-      <c r="A38" s="24" t="s">
+      <c r="L37" s="23">
+        <v>-142408541325.62299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="60">
+      <c r="A38" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H38" s="26" t="s">
+      <c r="H38" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I38" s="30" t="s">
+      <c r="I38" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="26" t="s">
+      <c r="J38" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K38" s="26" t="s">
+      <c r="K38" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="31">
-        <v>-163946873508.193</v>
-      </c>
-    </row>
-    <row r="39" ht="84" spans="1:12">
-      <c r="A39" s="24" t="s">
+      <c r="L38" s="23">
+        <v>-163946873508.19299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="90">
+      <c r="A39" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="26" t="s">
+      <c r="H39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="30" t="s">
+      <c r="I39" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="26" t="s">
+      <c r="J39" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="K39" s="26" t="s">
+      <c r="K39" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="L39" s="31">
+      <c r="L39" s="23">
         <v>-185485205690.763</v>
       </c>
     </row>
-    <row r="40" ht="70" spans="1:12">
-      <c r="A40" s="24" t="s">
+    <row r="40" spans="1:12" ht="105">
+      <c r="A40" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="30" t="s">
+      <c r="I40" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="26" t="s">
+      <c r="J40" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K40" s="26" t="s">
+      <c r="K40" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="L40" s="31">
-        <v>-207023537873.334</v>
-      </c>
-    </row>
-    <row r="41" ht="42" spans="1:12">
-      <c r="A41" s="24" t="s">
+      <c r="L40" s="23">
+        <v>-207023537873.33401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="45">
+      <c r="A41" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H41" s="26" t="s">
+      <c r="H41" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="30" t="s">
+      <c r="I41" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="26" t="s">
+      <c r="J41" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K41" s="26" t="s">
+      <c r="K41" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="L41" s="31">
-        <v>-228561870055.904</v>
-      </c>
-    </row>
-    <row r="52" spans="6:10">
-      <c r="F52" s="27"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="25"/>
-    </row>
-    <row r="53" spans="6:10">
-      <c r="F53" s="27"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="25"/>
-    </row>
-    <row r="54" spans="6:10">
-      <c r="F54" s="27"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="29"/>
-    </row>
-    <row r="55" spans="6:10">
-      <c r="F55" s="27"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="25"/>
-    </row>
-    <row r="56" ht="56" spans="3:14">
-      <c r="C56" s="24" t="s">
+      <c r="L41" s="23">
+        <v>-228561870055.90399</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14">
+      <c r="F52" s="19"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="20"/>
+      <c r="J52" s="15"/>
+    </row>
+    <row r="53" spans="3:14">
+      <c r="F53" s="19"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="20"/>
+      <c r="J53" s="15"/>
+    </row>
+    <row r="54" spans="3:14">
+      <c r="F54" s="19"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="20"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="3:14">
+      <c r="F55" s="19"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="20"/>
+      <c r="J55" s="15"/>
+    </row>
+    <row r="56" spans="3:14" ht="60">
+      <c r="C56" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E56" s="26" t="s">
+      <c r="E56" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F56" s="27" t="s">
+      <c r="F56" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="G56" s="26" t="s">
+      <c r="G56" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H56" s="26" t="s">
+      <c r="H56" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="I56" s="26" t="s">
+      <c r="I56" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="J56" s="26" t="s">
+      <c r="J56" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K56" s="30" t="s">
+      <c r="K56" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="L56" s="26" t="s">
+      <c r="L56" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="M56" s="26" t="s">
+      <c r="M56" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="N56" s="31">
+      <c r="N56" s="23">
         <v>62809549244</v>
       </c>
     </row>
-    <row r="57" ht="56" spans="3:14">
-      <c r="C57" s="24" t="s">
+    <row r="57" spans="3:14" ht="60">
+      <c r="C57" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F57" s="27" t="s">
+      <c r="F57" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="G57" s="26" t="s">
+      <c r="G57" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H57" s="26" t="s">
+      <c r="H57" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="I57" s="26" t="s">
+      <c r="I57" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J57" s="26" t="s">
+      <c r="J57" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K57" s="30" t="s">
+      <c r="K57" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L57" s="26" t="s">
+      <c r="L57" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="M57" s="26" t="s">
+      <c r="M57" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="N57" s="31">
+      <c r="N57" s="23">
         <v>620683615565</v>
       </c>
     </row>
-    <row r="58" ht="84" spans="3:14">
-      <c r="C58" s="24" t="s">
+    <row r="58" spans="3:14" ht="90">
+      <c r="C58" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="F58" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="G58" s="26" t="s">
+      <c r="G58" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H58" s="26" t="s">
+      <c r="H58" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="I58" s="26" t="s">
+      <c r="I58" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="J58" s="26" t="s">
+      <c r="J58" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K58" s="30" t="s">
+      <c r="K58" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L58" s="26" t="s">
+      <c r="L58" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="M58" s="26" t="s">
+      <c r="M58" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="N58" s="31">
+      <c r="N58" s="23">
         <v>620552219626</v>
       </c>
     </row>
-    <row r="59" ht="70" spans="3:14">
-      <c r="C59" s="24" t="s">
+    <row r="59" spans="3:14" ht="105">
+      <c r="C59" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E59" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F59" s="27" t="s">
+      <c r="F59" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="G59" s="26" t="s">
+      <c r="G59" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H59" s="26" t="s">
+      <c r="H59" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="I59" s="26" t="s">
+      <c r="I59" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="J59" s="26" t="s">
+      <c r="J59" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K59" s="30" t="s">
+      <c r="K59" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="L59" s="26" t="s">
+      <c r="L59" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="M59" s="26" t="s">
+      <c r="M59" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="N59" s="31">
+      <c r="N59" s="23">
         <v>845719776</v>
       </c>
     </row>
-    <row r="60" ht="70" spans="3:14">
-      <c r="C60" s="24" t="s">
+    <row r="60" spans="3:14" ht="90">
+      <c r="C60" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="E60" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F60" s="27" t="s">
+      <c r="F60" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="G60" s="26" t="s">
+      <c r="G60" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H60" s="26" t="s">
+      <c r="H60" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="I60" s="26" t="s">
+      <c r="I60" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="J60" s="26" t="s">
+      <c r="J60" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K60" s="30" t="s">
+      <c r="K60" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="L60" s="26" t="s">
+      <c r="L60" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="M60" s="26" t="s">
+      <c r="M60" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="N60" s="31">
+      <c r="N60" s="23">
         <v>1766087103</v>
       </c>
     </row>
-    <row r="61" ht="84" spans="3:14">
-      <c r="C61" s="24" t="s">
+    <row r="61" spans="3:14" ht="90">
+      <c r="C61" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F61" s="27" t="s">
+      <c r="F61" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="G61" s="26" t="s">
+      <c r="G61" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H61" s="26" t="s">
+      <c r="H61" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="I61" s="26" t="s">
+      <c r="I61" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="J61" s="26" t="s">
+      <c r="J61" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K61" s="30" t="s">
+      <c r="K61" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L61" s="26" t="s">
+      <c r="L61" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M61" s="26" t="s">
+      <c r="M61" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="N61" s="31">
+      <c r="N61" s="23">
         <v>625866993184</v>
       </c>
     </row>
-    <row r="62" ht="70" spans="3:14">
-      <c r="C62" s="24" t="s">
+    <row r="62" spans="3:14" ht="75">
+      <c r="C62" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="E62" s="26" t="s">
+      <c r="E62" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F62" s="27" t="s">
+      <c r="F62" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="G62" s="26" t="s">
+      <c r="G62" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H62" s="26" t="s">
+      <c r="H62" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="I62" s="26" t="s">
+      <c r="I62" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="J62" s="26" t="s">
+      <c r="J62" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K62" s="30" t="s">
+      <c r="K62" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L62" s="26" t="s">
+      <c r="L62" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="M62" s="26" t="s">
+      <c r="M62" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="N62" s="31">
+      <c r="N62" s="23">
         <v>620776713836</v>
       </c>
     </row>
-    <row r="63" ht="42" spans="3:14">
-      <c r="C63" s="24" t="s">
+    <row r="63" spans="3:14" ht="60">
+      <c r="C63" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="D63" s="25" t="s">
+      <c r="D63" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E63" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F63" s="27" t="s">
+      <c r="F63" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="G63" s="26" t="s">
+      <c r="G63" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H63" s="26" t="s">
+      <c r="H63" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="I63" s="26" t="s">
+      <c r="I63" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="J63" s="26" t="s">
+      <c r="J63" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="K63" s="30" t="s">
+      <c r="K63" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="L63" s="26" t="s">
+      <c r="L63" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="M63" s="26" t="s">
+      <c r="M63" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="N63" s="31">
+      <c r="N63" s="23">
         <v>6203250913642</v>
       </c>
     </row>
-    <row r="64" ht="56" spans="3:14">
-      <c r="C64" s="24" t="s">
+    <row r="64" spans="3:14" ht="60">
+      <c r="C64" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="F64" s="27" t="s">
+      <c r="F64" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="G64" s="26" t="s">
+      <c r="G64" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H64" s="26" t="s">
+      <c r="H64" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="I64" s="26" t="s">
+      <c r="I64" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="J64" s="26" t="s">
+      <c r="J64" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="K64" s="30" t="s">
+      <c r="K64" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L64" s="26" t="s">
+      <c r="L64" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="M64" s="26" t="s">
+      <c r="M64" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="N64" s="31">
+      <c r="N64" s="23">
         <v>62065510507</v>
       </c>
     </row>
     <row r="65" spans="6:10">
-      <c r="F65" s="27"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="25"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="20"/>
+      <c r="J65" s="15"/>
     </row>
     <row r="66" spans="6:10">
-      <c r="F66" s="27"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="29"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="6:10">
-      <c r="F67" s="27"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="25"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="20"/>
+      <c r="J67" s="15"/>
     </row>
     <row r="68" spans="6:10">
-      <c r="F68" s="27"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="25"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="20"/>
+      <c r="J68" s="15"/>
     </row>
     <row r="69" spans="6:10">
-      <c r="F69" s="27"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="25"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="20"/>
+      <c r="J69" s="15"/>
     </row>
     <row r="70" spans="6:10">
-      <c r="F70" s="27"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="29"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="6:10">
-      <c r="F71" s="27"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="25"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="20"/>
+      <c r="J71" s="15"/>
     </row>
     <row r="72" spans="6:10">
-      <c r="F72" s="27"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="25"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="20"/>
+      <c r="J72" s="15"/>
     </row>
     <row r="73" spans="6:10">
-      <c r="F73" s="27"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="25"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="20"/>
+      <c r="J73" s="15"/>
     </row>
     <row r="74" spans="6:10">
-      <c r="F74" s="27"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="29"/>
-    </row>
-    <row r="75" spans="6:8">
-      <c r="F75" s="25"/>
-      <c r="H75" s="28"/>
-    </row>
-    <row r="76" spans="6:8">
-      <c r="F76" s="25"/>
-      <c r="H76" s="33"/>
-    </row>
-    <row r="77" spans="6:8">
-      <c r="F77" s="25"/>
-      <c r="H77" s="33"/>
-    </row>
-    <row r="78" spans="6:8">
-      <c r="F78" s="25"/>
-      <c r="H78" s="33"/>
-    </row>
-    <row r="79" spans="6:8">
-      <c r="F79" s="25"/>
-      <c r="H79" s="33"/>
-    </row>
-    <row r="80" spans="6:8">
-      <c r="F80" s="25"/>
-      <c r="H80" s="33"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="20"/>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="6:10">
+      <c r="F75" s="15"/>
+      <c r="H75" s="20"/>
+    </row>
+    <row r="76" spans="6:10">
+      <c r="F76" s="15"/>
+      <c r="H76" s="20"/>
+    </row>
+    <row r="77" spans="6:10">
+      <c r="F77" s="15"/>
+      <c r="H77" s="20"/>
+    </row>
+    <row r="78" spans="6:10">
+      <c r="F78" s="15"/>
+      <c r="H78" s="20"/>
+    </row>
+    <row r="79" spans="6:10">
+      <c r="F79" s="15"/>
+      <c r="H79" s="20"/>
+    </row>
+    <row r="80" spans="6:10">
+      <c r="F80" s="15"/>
+      <c r="H80" s="20"/>
     </row>
     <row r="81" spans="6:8">
-      <c r="F81" s="25"/>
-      <c r="H81" s="33"/>
+      <c r="F81" s="15"/>
+      <c r="H81" s="20"/>
     </row>
     <row r="82" spans="6:8">
-      <c r="F82" s="25"/>
-      <c r="H82" s="33"/>
+      <c r="F82" s="15"/>
+      <c r="H82" s="20"/>
     </row>
     <row r="83" spans="6:8">
-      <c r="F83" s="25"/>
-      <c r="H83" s="28"/>
+      <c r="F83" s="15"/>
+      <c r="H83" s="20"/>
     </row>
     <row r="84" spans="6:8">
-      <c r="F84" s="25"/>
-      <c r="H84" s="28"/>
+      <c r="F84" s="15"/>
+      <c r="H84" s="20"/>
     </row>
     <row r="85" spans="6:8">
-      <c r="F85" s="25"/>
-      <c r="H85" s="28"/>
-    </row>
-    <row r="86" spans="6:6">
-      <c r="F86" s="25"/>
-    </row>
-    <row r="87" spans="6:6">
-      <c r="F87" s="25"/>
-    </row>
-    <row r="88" spans="6:6">
-      <c r="F88" s="25"/>
-    </row>
-    <row r="89" spans="6:6">
-      <c r="F89" s="25"/>
-    </row>
-    <row r="90" spans="6:6">
-      <c r="F90" s="25"/>
-    </row>
-    <row r="91" spans="6:6">
-      <c r="F91" s="25"/>
+      <c r="F85" s="15"/>
+      <c r="H85" s="20"/>
+    </row>
+    <row r="86" spans="6:8">
+      <c r="F86" s="15"/>
+    </row>
+    <row r="87" spans="6:8">
+      <c r="F87" s="15"/>
+    </row>
+    <row r="88" spans="6:8">
+      <c r="F88" s="15"/>
+    </row>
+    <row r="89" spans="6:8">
+      <c r="F89" s="15"/>
+    </row>
+    <row r="90" spans="6:8">
+      <c r="F90" s="15"/>
+    </row>
+    <row r="91" spans="6:8">
+      <c r="F91" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K7" r:id="rId1" display="JarwaPadmasari@testDomain.com"/>
-    <hyperlink ref="K31" r:id="rId1" display="JarwaPadmasari@testDomain.com"/>
+    <hyperlink ref="K7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K31" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
         <v>408</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.0078125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A1" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A3" t="s">
         <v>413</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>414</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.2890625" style="9" customWidth="1"/>
-    <col min="4" max="5" width="13.578125" style="9" customWidth="1"/>
-    <col min="6" max="8" width="13.578125" style="4" customWidth="1"/>
+    <col min="1" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" style="5" customWidth="1"/>
+    <col min="6" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>340</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>416</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
         <v>418</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>419</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="6">
         <v>40525</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="6">
         <v>4498493</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="6">
         <v>998393</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>420</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s">
         <v>421</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A3" t="s">
         <v>423</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>424</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
         <v>40526</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
         <v>4498494</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="6">
         <v>998394</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>420</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s">
         <v>421</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A4" t="s">
         <v>426</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>427</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>40527</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
         <v>4498495</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="6">
         <v>998395</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>420</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s">
         <v>421</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" t="s">
         <v>428</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.578125" style="4" customWidth="1"/>
-    <col min="3" max="5" width="13.578125" style="9" customWidth="1"/>
-    <col min="6" max="8" width="13.578125" style="4" customWidth="1"/>
+    <col min="1" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="5" customWidth="1"/>
+    <col min="6" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>340</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>416</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
         <v>418</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>419</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="6">
         <v>40525</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="6">
         <v>4498493</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="6">
         <v>998393</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>420</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s">
         <v>421</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A3" t="s">
         <v>423</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>424</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
         <v>40526</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
         <v>4498494</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="6">
         <v>998394</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>420</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s">
         <v>421</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A4" t="s">
         <v>426</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>427</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>40527</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
         <v>4498495</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="6">
         <v>998395</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>420</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s">
         <v>421</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" t="s">
         <v>428</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="18.71875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.4296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.859375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.2890625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="18.0078125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="18.71875" style="9" customWidth="1"/>
-    <col min="8" max="13" width="13.578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="5" customWidth="1"/>
+    <col min="8" max="13" width="13.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:13">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>431</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="M1" s="10"/>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:13">
-      <c r="A2" s="10">
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>440</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>440</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>441</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="6">
         <v>1</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="6">
         <v>1</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="6">
         <v>1</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="6">
         <v>1</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="6">
         <v>1</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:13">
-      <c r="A3" s="10">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>442</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>442</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>441</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="6">
         <v>2</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="6">
         <v>2</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="6">
         <v>2</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="6">
         <v>2</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="6">
         <v>2</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="6">
         <v>2</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="6">
         <v>2</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="6">
         <v>2</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:13">
-      <c r="A4" s="10">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>443</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>443</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>441</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="6">
         <v>3</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="6">
         <v>3</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="6">
         <v>3</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="6">
         <v>3</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="6">
         <v>3</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="6">
         <v>3</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="6">
         <v>3</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="6">
         <v>3</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="6">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.71875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.4296875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.71875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.0078125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.0078125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.2890625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.2890625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="25.71875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17.2890625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.859375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" spans="1:11">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>444</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E2" s="40" t="s">
         <v>445</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:11">
-      <c r="A2" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="C2" s="8">
-        <v>834762739645783</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="E2" s="8">
-        <v>8637465347234</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:11">
-      <c r="A3" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="C3" s="8">
-        <v>834762739645783</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="E3" s="8">
-        <v>8637465347234</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="4" ht="19.5" customHeight="1" spans="1:11">
-      <c r="A4" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="C4" s="8">
-        <v>834762739645783</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="E4" s="8">
-        <v>8637465347234</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:11">
-      <c r="A5" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="C5" s="8">
-        <v>834762739645783</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="E5" s="8">
-        <v>8637465347234</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>467</v>
-      </c>
+      <c r="F2" s="40" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25">
+        <v>3</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>491</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>494</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>516</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F16" s="34"/>
+    </row>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F17" s="34"/>
+    </row>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>605</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F18" s="34"/>
+    </row>
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F19" s="34"/>
+    </row>
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F20" s="36"/>
+    </row>
+    <row r="21" spans="1:6" ht="15">
+      <c r="A21" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F21" s="36"/>
+    </row>
+    <row r="22" spans="1:6" ht="15">
+      <c r="A22" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F22" s="34"/>
+    </row>
+    <row r="23" spans="1:6" ht="15">
+      <c r="A23" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F23" s="34"/>
+    </row>
+    <row r="24" spans="1:6" ht="15">
+      <c r="A24" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F24" s="34"/>
+    </row>
+    <row r="25" spans="1:6" ht="15">
+      <c r="A25" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F25" s="34"/>
+    </row>
+    <row r="26" spans="1:6" ht="15">
+      <c r="A26" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F26" s="34"/>
+    </row>
+    <row r="27" spans="1:6" ht="15">
+      <c r="A27" s="30" t="s">
+        <v>542</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F27" s="34"/>
+    </row>
+    <row r="28" spans="1:6" ht="15">
+      <c r="A28" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F28" s="34"/>
+    </row>
+    <row r="29" spans="1:6" ht="15">
+      <c r="A29" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F29" s="34"/>
+    </row>
+    <row r="30" spans="1:6" ht="15">
+      <c r="A30" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F30" s="34"/>
+    </row>
+    <row r="31" spans="1:6" ht="15">
+      <c r="A31" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F31" s="34"/>
+    </row>
+    <row r="32" spans="1:6" ht="15">
+      <c r="A32" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>550</v>
+      </c>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F32" s="34"/>
+    </row>
+    <row r="33" spans="1:6" ht="15">
+      <c r="A33" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F33" s="34"/>
+    </row>
+    <row r="34" spans="1:6" ht="15">
+      <c r="A34" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F34" s="34"/>
+    </row>
+    <row r="35" spans="1:6" ht="15">
+      <c r="A35" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>553</v>
+      </c>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F35" s="34"/>
+    </row>
+    <row r="36" spans="1:6" ht="15">
+      <c r="A36" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F36" s="34"/>
+    </row>
+    <row r="37" spans="1:6" ht="15">
+      <c r="A37" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>555</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F37" s="34"/>
+    </row>
+    <row r="38" spans="1:6" ht="15">
+      <c r="A38" s="29" t="s">
+        <v>556</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>557</v>
+      </c>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F38" s="34"/>
+    </row>
+    <row r="39" spans="1:6" ht="15">
+      <c r="A39" s="29" t="s">
+        <v>556</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F39" s="34"/>
+    </row>
+    <row r="40" spans="1:6" ht="15">
+      <c r="A40" s="29" t="s">
+        <v>556</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F40" s="34"/>
+    </row>
+    <row r="41" spans="1:6" ht="15">
+      <c r="A41" s="29" t="s">
+        <v>556</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F41" s="34"/>
+    </row>
+    <row r="42" spans="1:6" ht="15">
+      <c r="A42" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F42" s="34"/>
+    </row>
+    <row r="43" spans="1:6" ht="15">
+      <c r="A43" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="C43" s="34"/>
+      <c r="D43" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F43" s="34"/>
+    </row>
+    <row r="44" spans="1:6" ht="15">
+      <c r="A44" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="C44" s="34"/>
+      <c r="D44" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F44" s="34"/>
+    </row>
+    <row r="45" spans="1:6" ht="15">
+      <c r="A45" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="C45" s="34"/>
+      <c r="D45" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F45" s="34"/>
+    </row>
+    <row r="46" spans="1:6" ht="15">
+      <c r="A46" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="C46" s="34"/>
+      <c r="D46" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F46" s="34"/>
+    </row>
+    <row r="47" spans="1:6" ht="15">
+      <c r="A47" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F47" s="34"/>
+    </row>
+    <row r="48" spans="1:6" ht="15">
+      <c r="A48" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="C48" s="34"/>
+      <c r="D48" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F48" s="34"/>
+    </row>
+    <row r="49" spans="1:6" ht="15">
+      <c r="A49" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="C49" s="34"/>
+      <c r="D49" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F49" s="34"/>
+    </row>
+    <row r="50" spans="1:6" ht="15">
+      <c r="A50" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="C50" s="34"/>
+      <c r="D50" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F50" s="34"/>
+    </row>
+    <row r="51" spans="1:6" ht="15">
+      <c r="A51" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>573</v>
+      </c>
+      <c r="C51" s="34"/>
+      <c r="D51" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F51" s="34"/>
+    </row>
+    <row r="52" spans="1:6" ht="15">
+      <c r="A52" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="C52" s="34"/>
+      <c r="D52" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F52" s="34"/>
+    </row>
+    <row r="53" spans="1:6" ht="15">
+      <c r="A53" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="C53" s="34"/>
+      <c r="D53" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F53" s="34"/>
+    </row>
+    <row r="54" spans="1:6" ht="15">
+      <c r="A54" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F54" s="34"/>
+    </row>
+    <row r="55" spans="1:6" ht="15">
+      <c r="A55" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="C55" s="34"/>
+      <c r="D55" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E55" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F55" s="34"/>
+    </row>
+    <row r="56" spans="1:6" ht="15">
+      <c r="A56" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="C56" s="34"/>
+      <c r="D56" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F56" s="34"/>
+    </row>
+    <row r="57" spans="1:6" ht="15">
+      <c r="A57" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C57" s="34"/>
+      <c r="D57" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F57" s="34"/>
+    </row>
+    <row r="58" spans="1:6" ht="15">
+      <c r="A58" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="C58" s="34"/>
+      <c r="D58" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F58" s="34"/>
+    </row>
+    <row r="59" spans="1:6" ht="15">
+      <c r="A59" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="C59" s="34"/>
+      <c r="D59" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F59" s="34"/>
+    </row>
+    <row r="60" spans="1:6" ht="15">
+      <c r="A60" s="28" t="s">
+        <v>590</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>591</v>
+      </c>
+      <c r="C60" s="34"/>
+      <c r="D60" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F60" s="34"/>
+    </row>
+    <row r="61" spans="1:6" ht="15">
+      <c r="A61" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="C61" s="34"/>
+      <c r="D61" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F61" s="34"/>
+    </row>
+    <row r="62" spans="1:6" ht="15">
+      <c r="A62" s="30" t="s">
+        <v>592</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>594</v>
+      </c>
+      <c r="C62" s="34"/>
+      <c r="D62" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E62" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F62" s="34"/>
+    </row>
+    <row r="63" spans="1:6" ht="15">
+      <c r="A63" s="30" t="s">
+        <v>595</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>596</v>
+      </c>
+      <c r="C63" s="34"/>
+      <c r="D63" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F63" s="34"/>
+    </row>
+    <row r="64" spans="1:6" ht="15">
+      <c r="A64" s="30" t="s">
+        <v>597</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>598</v>
+      </c>
+      <c r="C64" s="34"/>
+      <c r="D64" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F64" s="34"/>
+    </row>
+    <row r="65" spans="1:6" ht="15">
+      <c r="A65" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>600</v>
+      </c>
+      <c r="C65" s="34"/>
+      <c r="D65" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F65" s="34"/>
+    </row>
+    <row r="66" spans="1:6" ht="15">
+      <c r="A66" s="30" t="s">
+        <v>601</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>602</v>
+      </c>
+      <c r="C66" s="34"/>
+      <c r="D66" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F66" s="34"/>
+    </row>
+    <row r="67" spans="1:6" ht="15">
+      <c r="A67" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>604</v>
+      </c>
+      <c r="C67" s="34"/>
+      <c r="D67" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F67" s="34"/>
+    </row>
+    <row r="68" spans="1:6" ht="15">
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.0078125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.0078125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>472</v>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.2890625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.71875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>398</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="5" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="6" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="7" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="8" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="9" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="10" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="11" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="12" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="13" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>501</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.578125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="12.4296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.4296875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.71875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.4296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.2890625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" spans="1:10">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -6312,7 +7063,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:10">
+    <row r="2" spans="1:10" ht="19.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>271</v>
       </c>
@@ -6328,7 +7079,7 @@
       <c r="E2" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>276</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -6344,7 +7095,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:10">
+    <row r="3" spans="1:10" ht="19.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>281</v>
       </c>
@@ -6360,7 +7111,7 @@
       <c r="E3" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>276</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -6376,7 +7127,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1" spans="1:10">
+    <row r="4" spans="1:10" ht="19.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>284</v>
       </c>
@@ -6392,7 +7143,7 @@
       <c r="E4" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>276</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -6408,7 +7159,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10" ht="19.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>287</v>
       </c>
@@ -6424,7 +7175,7 @@
       <c r="E5" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" t="s">
         <v>276</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -6440,7 +7191,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" ht="19.5" customHeight="1" spans="1:10">
+    <row r="6" spans="1:10" ht="19.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>290</v>
       </c>
@@ -6456,7 +7207,7 @@
       <c r="E6" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" t="s">
         <v>276</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -6472,7 +7223,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1" spans="1:10">
+    <row r="7" spans="1:10" ht="19.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>293</v>
       </c>
@@ -6488,7 +7239,7 @@
       <c r="E7" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" t="s">
         <v>276</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -6504,7 +7255,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:10">
+    <row r="8" spans="1:10" ht="19.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>296</v>
       </c>
@@ -6520,7 +7271,7 @@
       <c r="E8" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" t="s">
         <v>276</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -6536,7 +7287,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" ht="19.5" customHeight="1" spans="1:10">
+    <row r="9" spans="1:10" ht="19.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>299</v>
       </c>
@@ -6552,7 +7303,7 @@
       <c r="E9" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" t="s">
         <v>276</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -6568,7 +7319,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" ht="19.5" customHeight="1" spans="1:10">
+    <row r="10" spans="1:10" ht="19.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>302</v>
       </c>
@@ -6584,7 +7335,7 @@
       <c r="E10" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" t="s">
         <v>276</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -6600,7 +7351,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" ht="19.5" customHeight="1" spans="1:10">
+    <row r="11" spans="1:10" ht="19.5" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>305</v>
       </c>
@@ -6616,7 +7367,7 @@
       <c r="E11" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" t="s">
         <v>276</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -6634,143 +7385,140 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.859375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.71875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>310</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:3">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>310</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>310</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:3">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>310</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="6" ht="19.5" customHeight="1" spans="1:3">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>310</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1" spans="1:3">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>310</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:3">
+    <row r="8" spans="1:3" ht="19.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>310</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="9" ht="19.5" customHeight="1" spans="1:3">
+    <row r="9" spans="1:3" ht="19.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>310</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="10" ht="19.5" customHeight="1" spans="1:3">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="13" t="s">
         <v>310</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="11" ht="19.5" customHeight="1" spans="1:3">
+    <row r="11" spans="1:3" ht="19.5" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="13" t="s">
         <v>310</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -6779,227 +7527,218 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.4296875" style="12" customWidth="1"/>
-    <col min="2" max="3" width="22.71875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="8" customWidth="1"/>
+    <col min="2" max="3" width="22.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A2" s="15">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A2" s="11">
         <v>44566</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="12" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A3" s="15">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A3" s="11">
         <v>44713</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="12" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A4" s="15">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A4" s="11">
         <v>44757</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A5" s="15">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A5" s="11">
         <v>44766</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:3">
-      <c r="A6" s="15">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1">
+      <c r="A6" s="11">
         <v>44927</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>328</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:1">
+    <row r="2" spans="1:1" ht="18.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:1">
+    <row r="3" spans="1:1" ht="18.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:1">
+    <row r="4" spans="1:1" ht="18.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" spans="1:1">
+    <row r="5" spans="1:1" ht="18.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:1">
+    <row r="6" spans="1:1" ht="18.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1" spans="1:1">
+    <row r="7" spans="1:1" ht="18.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1" spans="1:1">
+    <row r="8" spans="1:1" ht="18.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1" spans="1:1">
+    <row r="9" spans="1:1" ht="18.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1" spans="1:1">
+    <row r="10" spans="1:1" ht="18.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>338</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.859375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="13.1484375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.4296875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.0078125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.578125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="16.2890625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.578125" style="4" customWidth="1"/>
-    <col min="12" max="13" width="13.578125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="14.4296875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.71875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="13.578125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.4296875" style="9" customWidth="1"/>
+    <col min="1" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:17">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A1" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>340</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>341</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>343</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>344</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>346</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="6" t="s">
         <v>347</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -7023,358 +7762,349 @@
       <c r="P1" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="7" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:17">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>357</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="6">
         <v>9988278</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>359</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>360</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="6">
         <v>300</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" t="s">
         <v>361</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="6">
         <v>3324</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" t="s">
         <v>362</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" t="s">
         <v>363</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" t="s">
         <v>364</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" t="s">
         <v>365</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" t="s">
         <v>366</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" t="s">
         <v>367</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" t="s">
         <v>368</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="6">
         <v>93883282</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:17">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A3" t="s">
         <v>369</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>370</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>371</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
         <v>9988279</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>359</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>360</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="6">
         <v>301</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" t="s">
         <v>361</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="6">
         <v>3325</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" t="s">
         <v>362</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" t="s">
         <v>363</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" t="s">
         <v>364</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" t="s">
         <v>372</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" t="s">
         <v>366</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" t="s">
         <v>367</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" t="s">
         <v>368</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="6">
         <v>93883283</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.71875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13.578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.859375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.859375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.4296875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.4296875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.2890625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="30.1484375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.0078125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.578125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="13.578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:14">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A1" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>374</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>376</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>346</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>268</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>377</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>378</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" t="s">
         <v>350</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>379</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>378</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
         <v>350</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="6" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:14">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="6">
         <v>9988756</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>382</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>279</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s">
         <v>383</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" t="s">
         <v>384</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" t="s">
         <v>368</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="6">
         <v>9831</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" t="s">
         <v>385</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" t="s">
         <v>386</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" t="s">
         <v>387</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="6">
         <v>9812</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:14">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A3" t="s">
         <v>388</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>389</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
         <v>9988758</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>390</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>391</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>392</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s">
         <v>393</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" t="s">
         <v>386</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" t="s">
         <v>394</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="6">
         <v>432113</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" t="s">
         <v>395</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" t="s">
         <v>396</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" t="s">
         <v>397</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="6">
         <v>344123</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.859375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A5" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:1" ht="18.75" customHeight="1">
+      <c r="A6" t="s">
         <v>403</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.578125" style="4" customWidth="1"/>
+    <col min="1" max="2" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>269</v>
       </c>
@@ -7382,24 +8112,23 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A2" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A3" t="s">
         <v>405</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>406</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Filexel/lainlain.xlsx
+++ b/Filexel/lainlain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Filexel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19CA81E-A8E5-4906-BFE6-9A9437BAC776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CB1B2D-CE5F-4DF3-9F38-846CB380A6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9645" yWindow="510" windowWidth="18885" windowHeight="15555" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pegawai" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="661">
   <si>
     <t>NIP</t>
   </si>
@@ -2161,9 +2161,6 @@
     <t>SUMUT</t>
   </si>
   <si>
-    <t>Rupb. Kelas I Medan</t>
-  </si>
-  <si>
     <t>SUMBAR</t>
   </si>
   <si>
@@ -2392,7 +2389,175 @@
     <t>Rupb. Kelas I Manokwari</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Tipe</t>
+  </si>
+  <si>
+    <t>UPT</t>
+  </si>
+  <si>
+    <t>op@gmail.com</t>
+  </si>
+  <si>
+    <t>Op Rupbasan</t>
+  </si>
+  <si>
+    <t>oprupAceh</t>
+  </si>
+  <si>
+    <t>oprupMedan</t>
+  </si>
+  <si>
+    <t>oprupPadang</t>
+  </si>
+  <si>
+    <t>oprupPekanbaru</t>
+  </si>
+  <si>
+    <t>oprupBangkinang</t>
+  </si>
+  <si>
+    <t>oprupBengkalis</t>
+  </si>
+  <si>
+    <t>oprupRengat</t>
+  </si>
+  <si>
+    <t>oprupTanjungPinang</t>
+  </si>
+  <si>
+    <t>oprupJambi</t>
+  </si>
+  <si>
+    <t>oprupPalembang</t>
+  </si>
+  <si>
+    <t>oprupBaturaja</t>
+  </si>
+  <si>
+    <t>oprupPangkalPinang</t>
+  </si>
+  <si>
+    <t>oprupBengkulu</t>
+  </si>
+  <si>
+    <t>oprupArga Makmur</t>
+  </si>
+  <si>
+    <t>oprupSemarang</t>
+  </si>
+  <si>
+    <t>oprupSurakarta</t>
+  </si>
+  <si>
+    <t>oprupPekalongan</t>
+  </si>
+  <si>
+    <t>oprupWonogiri</t>
+  </si>
+  <si>
+    <t>oprupCilacap</t>
+  </si>
+  <si>
+    <t>oprupPurbalingga</t>
+  </si>
+  <si>
+    <t>oprupPurwokerto</t>
+  </si>
+  <si>
+    <t>oprupSragen</t>
+  </si>
+  <si>
+    <t>oprupYogyakarta</t>
+  </si>
+  <si>
+    <t>oprupWonosari</t>
+  </si>
+  <si>
+    <t>oprupWates</t>
+  </si>
+  <si>
+    <t>oprupBantul</t>
+  </si>
+  <si>
+    <t>oprupSurabaya</t>
+  </si>
+  <si>
+    <t>oprupBlitar</t>
+  </si>
+  <si>
+    <t>oprupJombang</t>
+  </si>
+  <si>
+    <t>oprupMojokerto</t>
+  </si>
+  <si>
+    <t>oprupProbolinggo</t>
+  </si>
+  <si>
+    <t>oprupPasuruan</t>
+  </si>
+  <si>
+    <t>oprupPontianak</t>
+  </si>
+  <si>
+    <t>oprupSingkawang</t>
+  </si>
+  <si>
+    <t>oprupSanggau</t>
+  </si>
+  <si>
+    <t>oprupPalangkaraya</t>
+  </si>
+  <si>
+    <t>oprupBanjarmasin</t>
+  </si>
+  <si>
+    <t>oprupSamarinda</t>
+  </si>
+  <si>
+    <t>oprupManado</t>
+  </si>
+  <si>
+    <t>oprupMakassar</t>
+  </si>
+  <si>
+    <t>oprupPalu</t>
+  </si>
+  <si>
+    <t>oprupKendari</t>
+  </si>
+  <si>
+    <t>oprupGorontalo</t>
+  </si>
+  <si>
+    <t>oprupMamuju</t>
+  </si>
+  <si>
+    <t>oprupDenpasar</t>
+  </si>
+  <si>
+    <t>oprupMataram</t>
+  </si>
+  <si>
+    <t>oprupSumbawaBesar</t>
+  </si>
+  <si>
+    <t>oprupKupang</t>
+  </si>
+  <si>
+    <t>oprupAmbon</t>
+  </si>
+  <si>
+    <t>oprupTernate</t>
+  </si>
+  <si>
+    <t>oprupJayapura</t>
+  </si>
+  <si>
+    <t>oprupManokwari</t>
+  </si>
+  <si>
+    <t>Aktif Level</t>
   </si>
 </sst>
 </file>
@@ -2402,7 +2567,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2489,8 +2654,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2524,6 +2694,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2580,7 +2756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2675,20 +2851,11 @@
     <xf numFmtId="3" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2696,16 +2863,49 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5609,1156 +5809,2420 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="47" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="40" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="I1" s="40" t="s">
         <v>481</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-    </row>
-    <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="40" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+    </row>
+    <row r="2" spans="1:12" ht="15">
+      <c r="A2" s="38" t="s">
         <v>482</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="K2" s="50" t="s">
+        <v>660</v>
+      </c>
+      <c r="L2" s="38" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="25">
+    <row r="3" spans="1:12" ht="15">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="44" t="s">
+        <v>604</v>
+      </c>
+      <c r="H3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="25">
+      <c r="I3" s="25">
         <v>3</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="39"/>
-    </row>
-    <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="26" t="s">
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="39"/>
+    </row>
+    <row r="4" spans="1:12" ht="15">
+      <c r="A4" s="35" t="s">
+        <v>486</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="C4" s="35">
+        <v>0</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E4" s="35">
+        <v>0</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>484</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="I4" s="27" t="s">
         <v>485</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>486</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="E4" s="37" t="s">
+      <c r="J4" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
+      <c r="A5" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="C5" s="35">
+        <v>0</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0</v>
+      </c>
+      <c r="F5" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="F4" s="38" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="26" t="s">
+      <c r="G5" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>484</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="I5" s="27" t="s">
         <v>490</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>491</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="E5" s="37" t="s">
+      <c r="J5" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="C6" s="35">
+        <v>0</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E6" s="35">
+        <v>0</v>
+      </c>
+      <c r="F6" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="26" t="s">
+      <c r="G6" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H6" s="26" t="s">
         <v>484</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="I6" s="27" t="s">
         <v>493</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>494</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="E6" s="37" t="s">
+      <c r="J6" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="C7" s="35">
+        <v>0</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E7" s="35">
+        <v>0</v>
+      </c>
+      <c r="F7" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="F6" s="38" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="26" t="s">
+      <c r="G7" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H7" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="I7" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>498</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="E7" s="37" t="s">
+      <c r="J7" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15">
+      <c r="A8" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="C8" s="35">
+        <v>0</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E8" s="35">
+        <v>0</v>
+      </c>
+      <c r="F8" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="F7" s="38" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15">
-      <c r="A8" s="27" t="s">
+      <c r="G8" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>500</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="I8" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>502</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="E8" s="37" t="s">
+      <c r="J8" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15">
+      <c r="A9" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="C9" s="35">
+        <v>0</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E9" s="35">
+        <v>0</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="F8" s="38" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="27" t="s">
+      <c r="G9" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H9" s="27" t="s">
         <v>500</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="I9" s="27" t="s">
         <v>504</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>505</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="E9" s="37" t="s">
+      <c r="J9" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15">
+      <c r="A10" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="C10" s="35">
+        <v>0</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E10" s="35">
+        <v>0</v>
+      </c>
+      <c r="F10" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="F9" s="38" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="27" t="s">
+      <c r="G10" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H10" s="27" t="s">
         <v>500</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="I10" s="27" t="s">
         <v>507</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>508</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="E10" s="37" t="s">
+      <c r="J10" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15">
+      <c r="A11" s="34" t="s">
+        <v>511</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="C11" s="35">
+        <v>0</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E11" s="35">
+        <v>0</v>
+      </c>
+      <c r="F11" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="F10" s="37" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="27" t="s">
+      <c r="G11" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H11" s="27" t="s">
         <v>500</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="I11" s="27" t="s">
         <v>510</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>511</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="E11" s="37" t="s">
+      <c r="J11" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15">
+      <c r="A12" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="C12" s="35">
+        <v>0</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E12" s="35">
+        <v>0</v>
+      </c>
+      <c r="F12" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="F11" s="37" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15">
-      <c r="A12" s="27" t="s">
+      <c r="G12" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H12" s="27" t="s">
         <v>500</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="I12" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>514</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="E12" s="37" t="s">
+      <c r="J12" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15">
+      <c r="A13" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="C13" s="35">
+        <v>0</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E13" s="35">
+        <v>0</v>
+      </c>
+      <c r="F13" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="F12" s="37" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15">
-      <c r="A13" s="26" t="s">
+      <c r="G13" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H13" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="I13" s="27" t="s">
         <v>516</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>517</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="E13" s="37" t="s">
+      <c r="J13" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15">
+      <c r="A14" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="C14" s="35">
+        <v>0</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E14" s="35">
+        <v>0</v>
+      </c>
+      <c r="F14" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="F13" s="37" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="26" t="s">
+      <c r="G14" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H14" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="I14" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>520</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="E14" s="37" t="s">
+      <c r="J14" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="A15" s="34" t="s">
+        <v>523</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="C15" s="35">
+        <v>0</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E15" s="35">
+        <v>0</v>
+      </c>
+      <c r="F15" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="F14" s="37" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15">
-      <c r="A15" s="26" t="s">
+      <c r="G15" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H15" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="I15" s="27" t="s">
         <v>522</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>523</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="E15" s="37" t="s">
+      <c r="J15" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15">
+      <c r="A16" s="46" t="s">
+        <v>608</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C16" s="35">
+        <v>0</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E16" s="35">
+        <v>0</v>
+      </c>
+      <c r="F16" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F15" s="37" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15">
-      <c r="A16" s="29" t="s">
+      <c r="G16" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H16" s="29" t="s">
         <v>525</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="I16" s="28" t="s">
         <v>526</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E16" s="34" t="s">
+      <c r="J16" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15">
+      <c r="A17" s="46" t="s">
+        <v>609</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C17" s="35">
+        <v>0</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E17" s="35">
+        <v>0</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F16" s="34"/>
-    </row>
-    <row r="17" spans="1:6" ht="15">
-      <c r="A17" s="29" t="s">
+      <c r="G17" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H17" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="I17" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15">
+      <c r="A18" s="46" t="s">
+        <v>610</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C18" s="35">
+        <v>0</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E18" s="35">
+        <v>0</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H18" s="29" t="s">
         <v>528</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E17" s="34" t="s">
+      <c r="I18" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15">
+      <c r="A19" s="46" t="s">
+        <v>611</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C19" s="35">
+        <v>0</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E19" s="35">
+        <v>0</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F17" s="34"/>
-    </row>
-    <row r="18" spans="1:6" ht="15">
-      <c r="A18" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="B18" s="28" t="s">
+      <c r="G19" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H19" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="I19" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15">
+      <c r="A20" s="46" t="s">
+        <v>612</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C20" s="35">
+        <v>0</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E20" s="35">
+        <v>0</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="G20" s="46" t="s">
         <v>605</v>
       </c>
-      <c r="D18" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E18" s="34" t="s">
+      <c r="H20" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15">
+      <c r="A21" s="46" t="s">
+        <v>613</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C21" s="35">
+        <v>0</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E21" s="35">
+        <v>0</v>
+      </c>
+      <c r="F21" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F18" s="34"/>
-    </row>
-    <row r="19" spans="1:6" ht="15">
-      <c r="A19" s="28" t="s">
-        <v>531</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>532</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E19" s="34" t="s">
+      <c r="G21" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15">
+      <c r="A22" s="46" t="s">
+        <v>614</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C22" s="35">
+        <v>0</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E22" s="35">
+        <v>0</v>
+      </c>
+      <c r="F22" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F19" s="34"/>
-    </row>
-    <row r="20" spans="1:6" ht="15">
-      <c r="A20" s="28" t="s">
-        <v>531</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>533</v>
-      </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E20" s="34" t="s">
+      <c r="G22" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15">
+      <c r="A23" s="46" t="s">
+        <v>615</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C23" s="35">
+        <v>0</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E23" s="35">
+        <v>0</v>
+      </c>
+      <c r="F23" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F20" s="36"/>
-    </row>
-    <row r="21" spans="1:6" ht="15">
-      <c r="A21" s="28" t="s">
-        <v>531</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E21" s="34" t="s">
+      <c r="G23" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15">
+      <c r="A24" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C24" s="35">
+        <v>0</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E24" s="35">
+        <v>0</v>
+      </c>
+      <c r="F24" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F21" s="36"/>
-    </row>
-    <row r="22" spans="1:6" ht="15">
-      <c r="A22" s="28" t="s">
-        <v>531</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>535</v>
-      </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E22" s="34" t="s">
+      <c r="G24" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15">
+      <c r="A25" s="46" t="s">
+        <v>617</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C25" s="35">
+        <v>0</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E25" s="35">
+        <v>0</v>
+      </c>
+      <c r="F25" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F22" s="34"/>
-    </row>
-    <row r="23" spans="1:6" ht="15">
-      <c r="A23" s="29" t="s">
-        <v>536</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>537</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E23" s="34" t="s">
+      <c r="G25" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15">
+      <c r="A26" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C26" s="35">
+        <v>0</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E26" s="35">
+        <v>0</v>
+      </c>
+      <c r="F26" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F23" s="34"/>
-    </row>
-    <row r="24" spans="1:6" ht="15">
-      <c r="A24" s="28" t="s">
-        <v>370</v>
-      </c>
-      <c r="B24" s="28" t="s">
+      <c r="G26" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H26" s="30" t="s">
         <v>538</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E24" s="34" t="s">
+      <c r="I26" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="J26" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15">
+      <c r="A27" s="46" t="s">
+        <v>619</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C27" s="35">
+        <v>0</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E27" s="35">
+        <v>0</v>
+      </c>
+      <c r="F27" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F24" s="34"/>
-    </row>
-    <row r="25" spans="1:6" ht="15">
-      <c r="A25" s="28" t="s">
-        <v>539</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>540</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E25" s="34" t="s">
+      <c r="G27" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15">
+      <c r="A28" s="46" t="s">
+        <v>620</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C28" s="35">
+        <v>0</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E28" s="35">
+        <v>0</v>
+      </c>
+      <c r="F28" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F25" s="34"/>
-    </row>
-    <row r="26" spans="1:6" ht="15">
-      <c r="A26" s="30" t="s">
-        <v>539</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E26" s="34" t="s">
+      <c r="G28" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15">
+      <c r="A29" s="46" t="s">
+        <v>621</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C29" s="35">
+        <v>0</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E29" s="35">
+        <v>0</v>
+      </c>
+      <c r="F29" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F26" s="34"/>
-    </row>
-    <row r="27" spans="1:6" ht="15">
-      <c r="A27" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="B27" s="28" t="s">
+      <c r="G29" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H29" s="30" t="s">
         <v>543</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E27" s="34" t="s">
+      <c r="I29" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15">
+      <c r="A30" s="46" t="s">
+        <v>622</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C30" s="35">
+        <v>0</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E30" s="35">
+        <v>0</v>
+      </c>
+      <c r="F30" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F27" s="34"/>
-    </row>
-    <row r="28" spans="1:6" ht="15">
-      <c r="A28" s="30" t="s">
-        <v>544</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>545</v>
-      </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E28" s="34" t="s">
+      <c r="G30" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15">
+      <c r="A31" s="46" t="s">
+        <v>623</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C31" s="35">
+        <v>0</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E31" s="35">
+        <v>0</v>
+      </c>
+      <c r="F31" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F28" s="34"/>
-    </row>
-    <row r="29" spans="1:6" ht="15">
-      <c r="A29" s="30" t="s">
-        <v>544</v>
-      </c>
-      <c r="B29" s="28" t="s">
+      <c r="G31" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H31" s="30" t="s">
         <v>546</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E29" s="34" t="s">
+      <c r="I31" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15">
+      <c r="A32" s="46" t="s">
+        <v>624</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C32" s="35">
+        <v>0</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E32" s="35">
+        <v>0</v>
+      </c>
+      <c r="F32" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F29" s="34"/>
-    </row>
-    <row r="30" spans="1:6" ht="15">
-      <c r="A30" s="28" t="s">
-        <v>547</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E30" s="34" t="s">
+      <c r="G32" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15">
+      <c r="A33" s="46" t="s">
+        <v>625</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C33" s="35">
+        <v>0</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E33" s="35">
+        <v>0</v>
+      </c>
+      <c r="F33" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F30" s="34"/>
-    </row>
-    <row r="31" spans="1:6" ht="15">
-      <c r="A31" s="30" t="s">
-        <v>547</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>549</v>
-      </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E31" s="34" t="s">
+      <c r="G33" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>550</v>
+      </c>
+      <c r="J33" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15">
+      <c r="A34" s="46" t="s">
+        <v>626</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C34" s="35">
+        <v>0</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E34" s="35">
+        <v>0</v>
+      </c>
+      <c r="F34" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F31" s="34"/>
-    </row>
-    <row r="32" spans="1:6" ht="15">
-      <c r="A32" s="30" t="s">
-        <v>547</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>550</v>
-      </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E32" s="34" t="s">
+      <c r="G34" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15">
+      <c r="A35" s="46" t="s">
+        <v>627</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C35" s="35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E35" s="35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F32" s="34"/>
-    </row>
-    <row r="33" spans="1:6" ht="15">
-      <c r="A33" s="28" t="s">
-        <v>547</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>551</v>
-      </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E33" s="34" t="s">
+      <c r="G35" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15">
+      <c r="A36" s="46" t="s">
+        <v>628</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C36" s="35">
+        <v>0</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E36" s="35">
+        <v>0</v>
+      </c>
+      <c r="F36" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F33" s="34"/>
-    </row>
-    <row r="34" spans="1:6" ht="15">
-      <c r="A34" s="28" t="s">
-        <v>547</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>552</v>
-      </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E34" s="34" t="s">
+      <c r="G36" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>553</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15">
+      <c r="A37" s="46" t="s">
+        <v>629</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C37" s="35">
+        <v>0</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E37" s="35">
+        <v>0</v>
+      </c>
+      <c r="F37" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F34" s="34"/>
-    </row>
-    <row r="35" spans="1:6" ht="15">
-      <c r="A35" s="28" t="s">
-        <v>547</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>553</v>
-      </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E35" s="34" t="s">
+      <c r="G37" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15">
+      <c r="A38" s="46" t="s">
+        <v>630</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C38" s="35">
+        <v>0</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E38" s="35">
+        <v>0</v>
+      </c>
+      <c r="F38" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F35" s="34"/>
-    </row>
-    <row r="36" spans="1:6" ht="15">
-      <c r="A36" s="28" t="s">
-        <v>547</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E36" s="34" t="s">
+      <c r="G38" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>555</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15">
+      <c r="A39" s="46" t="s">
+        <v>631</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C39" s="35">
+        <v>0</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E39" s="35">
+        <v>0</v>
+      </c>
+      <c r="F39" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F36" s="34"/>
-    </row>
-    <row r="37" spans="1:6" ht="15">
-      <c r="A37" s="30" t="s">
-        <v>547</v>
-      </c>
-      <c r="B37" s="28" t="s">
+      <c r="G39" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H39" s="29" t="s">
         <v>555</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E37" s="34" t="s">
+      <c r="I39" s="28" t="s">
+        <v>557</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15">
+      <c r="A40" s="46" t="s">
+        <v>632</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C40" s="35">
+        <v>0</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E40" s="35">
+        <v>0</v>
+      </c>
+      <c r="F40" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F37" s="34"/>
-    </row>
-    <row r="38" spans="1:6" ht="15">
-      <c r="A38" s="29" t="s">
-        <v>556</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>557</v>
-      </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E38" s="34" t="s">
+      <c r="G40" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>555</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="J40" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15">
+      <c r="A41" s="46" t="s">
+        <v>633</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C41" s="35">
+        <v>0</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E41" s="35">
+        <v>0</v>
+      </c>
+      <c r="F41" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F38" s="34"/>
-    </row>
-    <row r="39" spans="1:6" ht="15">
-      <c r="A39" s="29" t="s">
-        <v>556</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>558</v>
-      </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E39" s="34" t="s">
+      <c r="G41" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>555</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15">
+      <c r="A42" s="46" t="s">
+        <v>634</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C42" s="35">
+        <v>0</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E42" s="35">
+        <v>0</v>
+      </c>
+      <c r="F42" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F39" s="34"/>
-    </row>
-    <row r="40" spans="1:6" ht="15">
-      <c r="A40" s="29" t="s">
-        <v>556</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>559</v>
-      </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E40" s="34" t="s">
+      <c r="G42" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="J42" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15">
+      <c r="A43" s="46" t="s">
+        <v>635</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C43" s="35">
+        <v>0</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E43" s="35">
+        <v>0</v>
+      </c>
+      <c r="F43" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F40" s="34"/>
-    </row>
-    <row r="41" spans="1:6" ht="15">
-      <c r="A41" s="29" t="s">
-        <v>556</v>
-      </c>
-      <c r="B41" s="28" t="s">
+      <c r="G43" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H43" s="28" t="s">
         <v>560</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E41" s="34" t="s">
+      <c r="I43" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="J43" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15">
+      <c r="A44" s="46" t="s">
+        <v>636</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C44" s="35">
+        <v>0</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E44" s="35">
+        <v>0</v>
+      </c>
+      <c r="F44" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F41" s="34"/>
-    </row>
-    <row r="42" spans="1:6" ht="15">
-      <c r="A42" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>562</v>
-      </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E42" s="34" t="s">
+      <c r="G44" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="J44" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15">
+      <c r="A45" s="46" t="s">
+        <v>637</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C45" s="35">
+        <v>0</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E45" s="35">
+        <v>0</v>
+      </c>
+      <c r="F45" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F42" s="34"/>
-    </row>
-    <row r="43" spans="1:6" ht="15">
-      <c r="A43" s="28" t="s">
-        <v>561</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>563</v>
-      </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E43" s="34" t="s">
+      <c r="G45" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="J45" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15">
+      <c r="A46" s="46" t="s">
+        <v>638</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C46" s="35">
+        <v>0</v>
+      </c>
+      <c r="D46" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E46" s="35">
+        <v>0</v>
+      </c>
+      <c r="F46" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F43" s="34"/>
-    </row>
-    <row r="44" spans="1:6" ht="15">
-      <c r="A44" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>564</v>
-      </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E44" s="34" t="s">
+      <c r="G46" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="J46" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15">
+      <c r="A47" s="46" t="s">
+        <v>639</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C47" s="35">
+        <v>0</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E47" s="35">
+        <v>0</v>
+      </c>
+      <c r="F47" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F44" s="34"/>
-    </row>
-    <row r="45" spans="1:6" ht="15">
-      <c r="A45" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E45" s="34" t="s">
+      <c r="G47" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="J47" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15">
+      <c r="A48" s="46" t="s">
+        <v>640</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C48" s="35">
+        <v>0</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E48" s="35">
+        <v>0</v>
+      </c>
+      <c r="F48" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F45" s="34"/>
-    </row>
-    <row r="46" spans="1:6" ht="15">
-      <c r="A46" s="28" t="s">
-        <v>561</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E46" s="34" t="s">
+      <c r="G48" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="J48" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15">
+      <c r="A49" s="46" t="s">
+        <v>641</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C49" s="35">
+        <v>0</v>
+      </c>
+      <c r="D49" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E49" s="35">
+        <v>0</v>
+      </c>
+      <c r="F49" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F46" s="34"/>
-    </row>
-    <row r="47" spans="1:6" ht="15">
-      <c r="A47" s="28" t="s">
-        <v>561</v>
-      </c>
-      <c r="B47" s="28" t="s">
+      <c r="G49" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H49" s="30" t="s">
         <v>567</v>
       </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E47" s="34" t="s">
+      <c r="I49" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="J49" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15">
+      <c r="A50" s="46" t="s">
+        <v>642</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C50" s="35">
+        <v>0</v>
+      </c>
+      <c r="D50" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E50" s="35">
+        <v>0</v>
+      </c>
+      <c r="F50" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F47" s="34"/>
-    </row>
-    <row r="48" spans="1:6" ht="15">
-      <c r="A48" s="30" t="s">
-        <v>568</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>569</v>
-      </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E48" s="34" t="s">
+      <c r="G50" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="J50" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15">
+      <c r="A51" s="46" t="s">
+        <v>643</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C51" s="35">
+        <v>0</v>
+      </c>
+      <c r="D51" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E51" s="35">
+        <v>0</v>
+      </c>
+      <c r="F51" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F48" s="34"/>
-    </row>
-    <row r="49" spans="1:6" ht="15">
-      <c r="A49" s="30" t="s">
-        <v>568</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>570</v>
-      </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E49" s="34" t="s">
+      <c r="G51" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="J51" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15">
+      <c r="A52" s="46" t="s">
+        <v>644</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C52" s="35">
+        <v>0</v>
+      </c>
+      <c r="D52" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E52" s="35">
+        <v>0</v>
+      </c>
+      <c r="F52" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F49" s="34"/>
-    </row>
-    <row r="50" spans="1:6" ht="15">
-      <c r="A50" s="28" t="s">
-        <v>568</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>571</v>
-      </c>
-      <c r="C50" s="34"/>
-      <c r="D50" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E50" s="34" t="s">
+      <c r="G52" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="J52" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15">
+      <c r="A53" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C53" s="35">
+        <v>0</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E53" s="35">
+        <v>0</v>
+      </c>
+      <c r="F53" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F50" s="34"/>
-    </row>
-    <row r="51" spans="1:6" ht="15">
-      <c r="A51" s="30" t="s">
-        <v>572</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>573</v>
-      </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E51" s="34" t="s">
+      <c r="G53" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="J53" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15">
+      <c r="A54" s="46" t="s">
+        <v>646</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C54" s="35">
+        <v>0</v>
+      </c>
+      <c r="D54" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E54" s="35">
+        <v>0</v>
+      </c>
+      <c r="F54" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F51" s="34"/>
-    </row>
-    <row r="52" spans="1:6" ht="15">
-      <c r="A52" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>575</v>
-      </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E52" s="34" t="s">
+      <c r="G54" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="J54" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15">
+      <c r="A55" s="46" t="s">
+        <v>647</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C55" s="35">
+        <v>0</v>
+      </c>
+      <c r="D55" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E55" s="35">
+        <v>0</v>
+      </c>
+      <c r="F55" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F52" s="34"/>
-    </row>
-    <row r="53" spans="1:6" ht="15">
-      <c r="A53" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>577</v>
-      </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E53" s="34" t="s">
+      <c r="G55" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="J55" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15">
+      <c r="A56" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C56" s="35">
+        <v>0</v>
+      </c>
+      <c r="D56" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E56" s="35">
+        <v>0</v>
+      </c>
+      <c r="F56" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F53" s="34"/>
-    </row>
-    <row r="54" spans="1:6" ht="15">
-      <c r="A54" s="28" t="s">
-        <v>578</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>579</v>
-      </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E54" s="34" t="s">
+      <c r="G56" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H56" s="30" t="s">
+        <v>581</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="J56" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15">
+      <c r="A57" s="46" t="s">
+        <v>649</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C57" s="35">
+        <v>0</v>
+      </c>
+      <c r="D57" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E57" s="35">
+        <v>0</v>
+      </c>
+      <c r="F57" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F54" s="34"/>
-    </row>
-    <row r="55" spans="1:6" ht="15">
-      <c r="A55" s="28" t="s">
-        <v>580</v>
-      </c>
-      <c r="B55" s="28" t="s">
-        <v>581</v>
-      </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E55" s="34" t="s">
+      <c r="G57" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="J57" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15">
+      <c r="A58" s="46" t="s">
+        <v>650</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C58" s="35">
+        <v>0</v>
+      </c>
+      <c r="D58" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E58" s="35">
+        <v>0</v>
+      </c>
+      <c r="F58" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F55" s="34"/>
-    </row>
-    <row r="56" spans="1:6" ht="15">
-      <c r="A56" s="30" t="s">
-        <v>582</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>583</v>
-      </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E56" s="34" t="s">
+      <c r="G58" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="I58" s="31" t="s">
+        <v>586</v>
+      </c>
+      <c r="J58" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15">
+      <c r="A59" s="46" t="s">
+        <v>651</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C59" s="35">
+        <v>0</v>
+      </c>
+      <c r="D59" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E59" s="35">
+        <v>0</v>
+      </c>
+      <c r="F59" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F56" s="34"/>
-    </row>
-    <row r="57" spans="1:6" ht="15">
-      <c r="A57" s="28" t="s">
-        <v>584</v>
-      </c>
-      <c r="B57" s="28" t="s">
-        <v>585</v>
-      </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E57" s="34" t="s">
+      <c r="G59" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="I59" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="J59" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15">
+      <c r="A60" s="46" t="s">
+        <v>652</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C60" s="35">
+        <v>0</v>
+      </c>
+      <c r="D60" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E60" s="35">
+        <v>0</v>
+      </c>
+      <c r="F60" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F57" s="34"/>
-    </row>
-    <row r="58" spans="1:6" ht="15">
-      <c r="A58" s="28" t="s">
-        <v>586</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>587</v>
-      </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E58" s="34" t="s">
+      <c r="G60" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>589</v>
+      </c>
+      <c r="I60" s="31" t="s">
+        <v>590</v>
+      </c>
+      <c r="J60" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15">
+      <c r="A61" s="46" t="s">
+        <v>653</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C61" s="35">
+        <v>0</v>
+      </c>
+      <c r="D61" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E61" s="35">
+        <v>0</v>
+      </c>
+      <c r="F61" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F58" s="34"/>
-    </row>
-    <row r="59" spans="1:6" ht="15">
-      <c r="A59" s="28" t="s">
-        <v>588</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>589</v>
-      </c>
-      <c r="C59" s="34"/>
-      <c r="D59" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E59" s="34" t="s">
+      <c r="G61" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="I61" s="31" t="s">
+        <v>592</v>
+      </c>
+      <c r="J61" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15">
+      <c r="A62" s="46" t="s">
+        <v>654</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C62" s="35">
+        <v>0</v>
+      </c>
+      <c r="D62" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E62" s="35">
+        <v>0</v>
+      </c>
+      <c r="F62" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F59" s="34"/>
-    </row>
-    <row r="60" spans="1:6" ht="15">
-      <c r="A60" s="28" t="s">
-        <v>590</v>
-      </c>
-      <c r="B60" s="31" t="s">
+      <c r="G62" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H62" s="30" t="s">
         <v>591</v>
       </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E60" s="34" t="s">
+      <c r="I62" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="J62" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15">
+      <c r="A63" s="46" t="s">
+        <v>655</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C63" s="35">
+        <v>0</v>
+      </c>
+      <c r="D63" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E63" s="35">
+        <v>0</v>
+      </c>
+      <c r="F63" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F60" s="34"/>
-    </row>
-    <row r="61" spans="1:6" ht="15">
-      <c r="A61" s="28" t="s">
-        <v>592</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>593</v>
-      </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E61" s="34" t="s">
+      <c r="G63" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H63" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="I63" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="J63" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15">
+      <c r="A64" s="46" t="s">
+        <v>656</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C64" s="35">
+        <v>0</v>
+      </c>
+      <c r="D64" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E64" s="35">
+        <v>0</v>
+      </c>
+      <c r="F64" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F61" s="34"/>
-    </row>
-    <row r="62" spans="1:6" ht="15">
-      <c r="A62" s="30" t="s">
-        <v>592</v>
-      </c>
-      <c r="B62" s="31" t="s">
-        <v>594</v>
-      </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E62" s="34" t="s">
+      <c r="G64" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H64" s="30" t="s">
+        <v>596</v>
+      </c>
+      <c r="I64" s="31" t="s">
+        <v>597</v>
+      </c>
+      <c r="J64" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15">
+      <c r="A65" s="46" t="s">
+        <v>657</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C65" s="35">
+        <v>0</v>
+      </c>
+      <c r="D65" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E65" s="35">
+        <v>0</v>
+      </c>
+      <c r="F65" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F62" s="34"/>
-    </row>
-    <row r="63" spans="1:6" ht="15">
-      <c r="A63" s="30" t="s">
-        <v>595</v>
-      </c>
-      <c r="B63" s="31" t="s">
-        <v>596</v>
-      </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E63" s="34" t="s">
+      <c r="G65" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H65" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="I65" s="31" t="s">
+        <v>599</v>
+      </c>
+      <c r="J65" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15">
+      <c r="A66" s="46" t="s">
+        <v>658</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C66" s="35">
+        <v>0</v>
+      </c>
+      <c r="D66" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E66" s="35">
+        <v>0</v>
+      </c>
+      <c r="F66" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F63" s="34"/>
-    </row>
-    <row r="64" spans="1:6" ht="15">
-      <c r="A64" s="30" t="s">
-        <v>597</v>
-      </c>
-      <c r="B64" s="31" t="s">
-        <v>598</v>
-      </c>
-      <c r="C64" s="34"/>
-      <c r="D64" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E64" s="34" t="s">
+      <c r="G66" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H66" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="I66" s="31" t="s">
+        <v>601</v>
+      </c>
+      <c r="J66" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K66" s="32"/>
+      <c r="L66" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15">
+      <c r="A67" s="46" t="s">
+        <v>659</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="C67" s="35">
+        <v>0</v>
+      </c>
+      <c r="D67" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="E67" s="35">
+        <v>0</v>
+      </c>
+      <c r="F67" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="F64" s="34"/>
-    </row>
-    <row r="65" spans="1:6" ht="15">
-      <c r="A65" s="30" t="s">
-        <v>599</v>
-      </c>
-      <c r="B65" s="31" t="s">
-        <v>600</v>
-      </c>
-      <c r="C65" s="34"/>
-      <c r="D65" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E65" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="F65" s="34"/>
-    </row>
-    <row r="66" spans="1:6" ht="15">
-      <c r="A66" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="B66" s="31" t="s">
+      <c r="G67" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="H67" s="30" t="s">
         <v>602</v>
       </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E66" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="F66" s="34"/>
-    </row>
-    <row r="67" spans="1:6" ht="15">
-      <c r="A67" s="30" t="s">
+      <c r="I67" s="28" t="s">
         <v>603</v>
       </c>
-      <c r="B67" s="28" t="s">
-        <v>604</v>
-      </c>
-      <c r="C67" s="34"/>
-      <c r="D67" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="E67" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="F67" s="34"/>
-    </row>
-    <row r="68" spans="1:6" ht="15">
-      <c r="A68" s="32"/>
+      <c r="J67" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15">
+      <c r="A68" s="49"/>
       <c r="B68" s="32"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+    </row>
+    <row r="69" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A69" s="49"/>
+    </row>
+    <row r="70" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A70" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
+  <mergeCells count="1">
+    <mergeCell ref="H68:I68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
